--- a/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.795509698570129</v>
+        <v>2.230670821832689</v>
       </c>
       <c r="C2">
-        <v>0.5932901845047525</v>
+        <v>0.476693291436959</v>
       </c>
       <c r="D2">
-        <v>0.05719195551071721</v>
+        <v>0.03084669276958252</v>
       </c>
       <c r="E2">
-        <v>0.05851417587475893</v>
+        <v>0.05265530798693518</v>
       </c>
       <c r="F2">
-        <v>2.494071819866647</v>
+        <v>1.728430177909431</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.509792762697643</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08520524228713811</v>
       </c>
       <c r="K2">
-        <v>0.547270025274301</v>
+        <v>0.6041826670434318</v>
       </c>
       <c r="L2">
-        <v>0.1702819809820681</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5675478221820924</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.5941873060510119</v>
+      </c>
+      <c r="N2">
+        <v>1.024263520354459</v>
+      </c>
+      <c r="O2">
+        <v>1.160051783512714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.547013982711121</v>
+        <v>1.936648429666747</v>
       </c>
       <c r="C3">
-        <v>0.5103392676876695</v>
+        <v>0.4119635963264159</v>
       </c>
       <c r="D3">
-        <v>0.05635614471151129</v>
+        <v>0.0280729754504172</v>
       </c>
       <c r="E3">
-        <v>0.05286036323293075</v>
+        <v>0.04949048225463137</v>
       </c>
       <c r="F3">
-        <v>2.234600829780305</v>
+        <v>1.612014108833407</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.378294849309441</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08126779729358447</v>
       </c>
       <c r="K3">
-        <v>0.4712502042907332</v>
+        <v>0.5237556798528544</v>
       </c>
       <c r="L3">
-        <v>0.1481337092230994</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4898369647864058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5196580151429799</v>
+      </c>
+      <c r="N3">
+        <v>1.073623403131712</v>
+      </c>
+      <c r="O3">
+        <v>1.08328298768231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.396666118835327</v>
+        <v>1.758418592366013</v>
       </c>
       <c r="C4">
-        <v>0.4602326993633596</v>
+        <v>0.3726690264931278</v>
       </c>
       <c r="D4">
-        <v>0.0559065898720057</v>
+        <v>0.02638735068827103</v>
       </c>
       <c r="E4">
-        <v>0.04949239303501685</v>
+        <v>0.04761185436473525</v>
       </c>
       <c r="F4">
-        <v>2.079821609638515</v>
+        <v>1.543918641145552</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.300202207557859</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07899010981159904</v>
       </c>
       <c r="K4">
-        <v>0.4252764519952379</v>
+        <v>0.4749834142964957</v>
       </c>
       <c r="L4">
-        <v>0.1348333156253467</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4429693954989702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.4745651274783995</v>
+      </c>
+      <c r="N4">
+        <v>1.105555880229538</v>
+      </c>
+      <c r="O4">
+        <v>1.038555024668845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.335874478834938</v>
+        <v>1.686293533629879</v>
       </c>
       <c r="C5">
-        <v>0.4399886826297177</v>
+        <v>0.3567526671137671</v>
       </c>
       <c r="D5">
-        <v>0.05573781494674535</v>
+        <v>0.0257044789044869</v>
       </c>
       <c r="E5">
-        <v>0.04814325070709913</v>
+        <v>0.04686154200432036</v>
       </c>
       <c r="F5">
-        <v>2.01776288965722</v>
+        <v>1.516955794821939</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.268975011936575</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07809488550024923</v>
       </c>
       <c r="K5">
-        <v>0.4066914774351389</v>
+        <v>0.4552415401839696</v>
       </c>
       <c r="L5">
-        <v>0.1294790064951918</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4240543958309502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.4563383294467158</v>
+      </c>
+      <c r="N5">
+        <v>1.118961599033959</v>
+      </c>
+      <c r="O5">
+        <v>1.020887178348858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.32580651738138</v>
+        <v>1.674345674591393</v>
       </c>
       <c r="C6">
-        <v>0.4366368337172446</v>
+        <v>0.354115134260752</v>
       </c>
       <c r="D6">
-        <v>0.05571061761230567</v>
+        <v>0.02559132246387108</v>
       </c>
       <c r="E6">
-        <v>0.04792056138006728</v>
+        <v>0.04673784603718367</v>
       </c>
       <c r="F6">
-        <v>2.007515914253574</v>
+        <v>1.512524345989917</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.26382384291847</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07794816207872657</v>
       </c>
       <c r="K6">
-        <v>0.4036137534858142</v>
+        <v>0.4519708994935741</v>
       </c>
       <c r="L6">
-        <v>0.1285936362273645</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4209238785401581</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.4533202438372612</v>
+      </c>
+      <c r="N6">
+        <v>1.121210905138923</v>
+      </c>
+      <c r="O6">
+        <v>1.017985922345154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.395844438932158</v>
+        <v>1.757443937121849</v>
       </c>
       <c r="C7">
-        <v>0.4599590148832533</v>
+        <v>0.3724540032253572</v>
       </c>
       <c r="D7">
-        <v>0.05590425730158799</v>
+        <v>0.02637812535178341</v>
       </c>
       <c r="E7">
-        <v>0.04947410695275423</v>
+        <v>0.04760167493650336</v>
       </c>
       <c r="F7">
-        <v>2.078980712714923</v>
+        <v>1.54355190767761</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.299778740498681</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07897790591939113</v>
       </c>
       <c r="K7">
-        <v>0.4250252363622096</v>
+        <v>0.4747166547502104</v>
       </c>
       <c r="L7">
-        <v>0.1347608513418486</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4427135932037984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.4743187358582972</v>
+      </c>
+      <c r="N7">
+        <v>1.105735103235538</v>
+      </c>
+      <c r="O7">
+        <v>1.038314544876229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.709312464291742</v>
+        <v>2.128768258405557</v>
       </c>
       <c r="C8">
-        <v>0.5644966473149395</v>
+        <v>0.4542707550351679</v>
       </c>
       <c r="D8">
-        <v>0.05688956234563491</v>
+        <v>0.0298864698262129</v>
       </c>
       <c r="E8">
-        <v>0.05654156842845737</v>
+        <v>0.05155004761734006</v>
       </c>
       <c r="F8">
-        <v>2.403585386272667</v>
+        <v>1.687547194263217</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.46385899944319</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08381717648885711</v>
       </c>
       <c r="K8">
-        <v>0.5208955027473365</v>
+        <v>0.576312125942799</v>
       </c>
       <c r="L8">
-        <v>0.1625773260624506</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.540558919978622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.5683388942014531</v>
+      </c>
+      <c r="N8">
+        <v>1.040935655055357</v>
+      </c>
+      <c r="O8">
+        <v>1.133053008343765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.345966061415083</v>
+        <v>2.878834732973758</v>
       </c>
       <c r="C9">
-        <v>0.7777025625187264</v>
+        <v>0.6191055312841911</v>
       </c>
       <c r="D9">
-        <v>0.05940651555683019</v>
+        <v>0.03692281650992157</v>
       </c>
       <c r="E9">
-        <v>0.07135673595154657</v>
+        <v>0.05985444678906759</v>
       </c>
       <c r="F9">
-        <v>3.082441938835075</v>
+        <v>1.999948802109756</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.810112589173158</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.09452697382911879</v>
       </c>
       <c r="K9">
-        <v>0.715835629391151</v>
+        <v>0.7813845069332359</v>
       </c>
       <c r="L9">
-        <v>0.2199687583276457</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7406224236406516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.7589635510712753</v>
+      </c>
+      <c r="N9">
+        <v>0.9275290998325829</v>
+      </c>
+      <c r="O9">
+        <v>1.340231667784636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.833807596436657</v>
+        <v>3.448868182526098</v>
       </c>
       <c r="C10">
-        <v>0.9419705977655326</v>
+        <v>0.7441614346645338</v>
       </c>
       <c r="D10">
-        <v>0.06173903407576375</v>
+        <v>0.04221636941046825</v>
       </c>
       <c r="E10">
-        <v>0.08303514032431281</v>
+        <v>0.0663734564067191</v>
       </c>
       <c r="F10">
-        <v>3.616893262660852</v>
+        <v>2.252641112492228</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.084902312315208</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1033073446151249</v>
       </c>
       <c r="K10">
-        <v>0.8654412515109442</v>
+        <v>0.9371583209955361</v>
       </c>
       <c r="L10">
-        <v>0.2646120345240632</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8949131655383411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.9042858609569251</v>
+      </c>
+      <c r="N10">
+        <v>0.8537129396283802</v>
+      </c>
+      <c r="O10">
+        <v>1.508998528521573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.061852578864887</v>
+        <v>3.713713949198677</v>
       </c>
       <c r="C11">
-        <v>1.019043151980384</v>
+        <v>0.8022320956920055</v>
       </c>
       <c r="D11">
-        <v>0.06293871231210346</v>
+        <v>0.04465876234225874</v>
       </c>
       <c r="E11">
-        <v>0.0885748355324445</v>
+        <v>0.06944861669845892</v>
       </c>
       <c r="F11">
-        <v>3.870350601864857</v>
+        <v>2.373848669867726</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.21575810342344</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1075418218906847</v>
       </c>
       <c r="K11">
-        <v>0.9354488346053103</v>
+        <v>1.009520583341484</v>
       </c>
       <c r="L11">
-        <v>0.2856530441659473</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.967291936365072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.971906906037816</v>
+      </c>
+      <c r="N11">
+        <v>0.8224913279080042</v>
+      </c>
+      <c r="O11">
+        <v>1.59024988756083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.149257703602643</v>
+        <v>3.814931191712049</v>
       </c>
       <c r="C12">
-        <v>1.048632965019578</v>
+        <v>0.8244220963179316</v>
       </c>
       <c r="D12">
-        <v>0.06341626139180079</v>
+        <v>0.04558925369301647</v>
       </c>
       <c r="E12">
-        <v>0.09071050262404867</v>
+        <v>0.07063060812347999</v>
       </c>
       <c r="F12">
-        <v>3.968063396009256</v>
+        <v>2.420760989699318</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.266288835431851</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.109183790435246</v>
       </c>
       <c r="K12">
-        <v>0.9622941172170698</v>
+        <v>1.037174211627672</v>
       </c>
       <c r="L12">
-        <v>0.2937448527890609</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9950733785039674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.9977649518544141</v>
+      </c>
+      <c r="N12">
+        <v>0.8110357420451635</v>
+      </c>
+      <c r="O12">
+        <v>1.621744426907682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.130383823285399</v>
+        <v>3.793088842555392</v>
       </c>
       <c r="C13">
-        <v>1.042241128491298</v>
+        <v>0.8196336784250491</v>
       </c>
       <c r="D13">
-        <v>0.06331231974518658</v>
+        <v>0.04538859460986089</v>
       </c>
       <c r="E13">
-        <v>0.09024877143953347</v>
+        <v>0.07037523750476282</v>
       </c>
       <c r="F13">
-        <v>3.946937750186123</v>
+        <v>2.410610548807767</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.255360233406392</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.108828385459482</v>
       </c>
       <c r="K13">
-        <v>0.9564966596564375</v>
+        <v>1.031206702392993</v>
       </c>
       <c r="L13">
-        <v>0.2919962944042425</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9890725371693847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.9921841979724277</v>
+      </c>
+      <c r="N13">
+        <v>0.8134860833299697</v>
+      </c>
+      <c r="O13">
+        <v>1.614927795202462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.069021365463527</v>
+        <v>3.722021800107996</v>
       </c>
       <c r="C14">
-        <v>1.021469007632135</v>
+        <v>0.8040534903844616</v>
       </c>
       <c r="D14">
-        <v>0.06297751355824488</v>
+        <v>0.04473519783871183</v>
       </c>
       <c r="E14">
-        <v>0.08874974588222884</v>
+        <v>0.06954549865418258</v>
       </c>
       <c r="F14">
-        <v>3.87835319448368</v>
+        <v>2.377687161588483</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.219894834350129</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.107676112792582</v>
       </c>
       <c r="K14">
-        <v>0.9376503605142688</v>
+        <v>1.01179040126955</v>
       </c>
       <c r="L14">
-        <v>0.2863161597865016</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9695696912739962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.9740290170059893</v>
+      </c>
+      <c r="N14">
+        <v>0.8215413337861008</v>
+      </c>
+      <c r="O14">
+        <v>1.592825898830654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.031577177323356</v>
+        <v>3.678615867776273</v>
       </c>
       <c r="C15">
-        <v>1.00880025723049</v>
+        <v>0.7945371550565312</v>
       </c>
       <c r="D15">
-        <v>0.06277557134544764</v>
+        <v>0.04433572544529341</v>
       </c>
       <c r="E15">
-        <v>0.0878366535871109</v>
+        <v>0.06903959248136715</v>
       </c>
       <c r="F15">
-        <v>3.83657694852684</v>
+        <v>2.357656241217711</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.198303069145751</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1069754451843039</v>
       </c>
       <c r="K15">
-        <v>0.9261518213505298</v>
+        <v>0.9999312575750281</v>
       </c>
       <c r="L15">
-        <v>0.2828536659678278</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9576740969425472</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.9629422548410815</v>
+      </c>
+      <c r="N15">
+        <v>0.8265241438394995</v>
+      </c>
+      <c r="O15">
+        <v>1.579385052625057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.819041445972005</v>
+        <v>3.431682054562486</v>
       </c>
       <c r="C16">
-        <v>0.9369864249597413</v>
+        <v>0.7403926479097436</v>
       </c>
       <c r="D16">
-        <v>0.0616636942389448</v>
+        <v>0.04205749984154039</v>
       </c>
       <c r="E16">
-        <v>0.08267811102385991</v>
+        <v>0.06617483731624318</v>
       </c>
       <c r="F16">
-        <v>3.600557595132557</v>
+        <v>2.244855271341848</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.076479625750906</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1030357712087238</v>
       </c>
       <c r="K16">
-        <v>0.860909828319194</v>
+        <v>0.9324624410017037</v>
       </c>
       <c r="L16">
-        <v>0.2632532357039992</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8902319176923115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8998999244573511</v>
+      </c>
+      <c r="N16">
+        <v>0.8558031384188638</v>
+      </c>
+      <c r="O16">
+        <v>1.503785519013547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.690338972048494</v>
+        <v>3.281701862007083</v>
       </c>
       <c r="C17">
-        <v>0.8935764321718693</v>
+        <v>0.7074997509251659</v>
       </c>
       <c r="D17">
-        <v>0.06101930512070197</v>
+        <v>0.0406691291867034</v>
       </c>
       <c r="E17">
-        <v>0.07957520105484051</v>
+        <v>0.06444665714080955</v>
       </c>
       <c r="F17">
-        <v>3.458579957262941</v>
+        <v>2.177335225138435</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.003335524261743</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1006830981525368</v>
       </c>
       <c r="K17">
-        <v>0.8214220634971809</v>
+        <v>0.8914810213206437</v>
       </c>
       <c r="L17">
-        <v>0.2514291415962546</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8494583895952701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8616359961684878</v>
+      </c>
+      <c r="N17">
+        <v>0.8743879002165471</v>
+      </c>
+      <c r="O17">
+        <v>1.458610535993543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.616877682783354</v>
+        <v>3.195949597599281</v>
       </c>
       <c r="C18">
-        <v>0.8688244729444534</v>
+        <v>0.6886899114191749</v>
       </c>
       <c r="D18">
-        <v>0.06066148914781166</v>
+        <v>0.03987376148159427</v>
       </c>
       <c r="E18">
-        <v>0.07781151555506227</v>
+        <v>0.06346285881755875</v>
       </c>
       <c r="F18">
-        <v>3.377874028205269</v>
+        <v>2.139080858772715</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.961806625788796</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09935225757368471</v>
       </c>
       <c r="K18">
-        <v>0.7988897352946367</v>
+        <v>0.8680484061699616</v>
       </c>
       <c r="L18">
-        <v>0.2446959273173945</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8262088577509488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8397677950444944</v>
+      </c>
+      <c r="N18">
+        <v>0.8852974122807069</v>
+      </c>
+      <c r="O18">
+        <v>1.433043174740888</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.59209721539662</v>
+        <v>3.166999620767115</v>
       </c>
       <c r="C19">
-        <v>0.8604791572081751</v>
+        <v>0.6823391355485171</v>
       </c>
       <c r="D19">
-        <v>0.06054244729688207</v>
+        <v>0.03960499167123999</v>
       </c>
       <c r="E19">
-        <v>0.07721782466611771</v>
+        <v>0.06313146453310026</v>
       </c>
       <c r="F19">
-        <v>3.350705537712258</v>
+        <v>2.126225167224433</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.947834811773532</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09890538464815535</v>
       </c>
       <c r="K19">
-        <v>0.7912900553441915</v>
+        <v>0.8601373356610651</v>
       </c>
       <c r="L19">
-        <v>0.2424272743817113</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8183700733851396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8323867053471332</v>
+      </c>
+      <c r="N19">
+        <v>0.8890281668986901</v>
+      </c>
+      <c r="O19">
+        <v>1.424455604373961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.703979948815174</v>
+        <v>3.297613583667953</v>
       </c>
       <c r="C20">
-        <v>0.8981746585134545</v>
+        <v>0.710989739430488</v>
       </c>
       <c r="D20">
-        <v>0.06108655216795</v>
+        <v>0.0408165892108201</v>
       </c>
       <c r="E20">
-        <v>0.07990329922063566</v>
+        <v>0.06462955670811255</v>
       </c>
       <c r="F20">
-        <v>3.473593102103621</v>
+        <v>2.184461892819968</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.011064847250239</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1009312035408882</v>
       </c>
       <c r="K20">
-        <v>0.8256066056932525</v>
+        <v>0.8958289490828406</v>
       </c>
       <c r="L20">
-        <v>0.2526807034941854</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8537774662737405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8656945132666252</v>
+      </c>
+      <c r="N20">
+        <v>0.8723865512599502</v>
+      </c>
+      <c r="O20">
+        <v>1.46337585764185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.087015059521946</v>
+        <v>3.742869676637554</v>
       </c>
       <c r="C21">
-        <v>1.027558735166423</v>
+        <v>0.8086240883949358</v>
       </c>
       <c r="D21">
-        <v>0.06307519397943651</v>
+        <v>0.0449269582742815</v>
       </c>
       <c r="E21">
-        <v>0.08918897193586872</v>
+        <v>0.06978872355773547</v>
       </c>
       <c r="F21">
-        <v>3.898448929571714</v>
+        <v>2.387329076997801</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.230284139585081</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1080134859591269</v>
       </c>
       <c r="K21">
-        <v>0.9431764135415222</v>
+        <v>1.017486304696959</v>
       </c>
       <c r="L21">
-        <v>0.2879810246175083</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9752875181413643</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9793545219600404</v>
+      </c>
+      <c r="N21">
+        <v>0.8191650996555069</v>
+      </c>
+      <c r="O21">
+        <v>1.599297344122093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.343564156436969</v>
+        <v>4.039338218890464</v>
       </c>
       <c r="C22">
-        <v>1.114512542115989</v>
+        <v>0.8736154257530302</v>
       </c>
       <c r="D22">
-        <v>0.06451238296747874</v>
+        <v>0.04764639615580535</v>
       </c>
       <c r="E22">
-        <v>0.09548161003772648</v>
+        <v>0.07326345097414588</v>
       </c>
       <c r="F22">
-        <v>4.186365381427123</v>
+        <v>2.525885194083372</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.379338007173061</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1128685012583261</v>
       </c>
       <c r="K22">
-        <v>1.021998436519951</v>
+        <v>1.098482666867099</v>
       </c>
       <c r="L22">
-        <v>0.3117854680042313</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.056909682353933</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.055121890664353</v>
+      </c>
+      <c r="N22">
+        <v>0.786538615307677</v>
+      </c>
+      <c r="O22">
+        <v>1.692409136279124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.206008230608518</v>
+        <v>3.880560238658518</v>
       </c>
       <c r="C23">
-        <v>1.067859929245031</v>
+        <v>0.8388093936037535</v>
       </c>
       <c r="D23">
-        <v>0.06373150781253401</v>
+        <v>0.04619171014602586</v>
       </c>
       <c r="E23">
-        <v>0.09210069584849023</v>
+        <v>0.07139888617421519</v>
       </c>
       <c r="F23">
-        <v>4.031669788902178</v>
+        <v>2.451347812523395</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.29920574140742</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1102551696550265</v>
       </c>
       <c r="K23">
-        <v>0.9797280952017218</v>
+        <v>1.055104447110253</v>
       </c>
       <c r="L23">
-        <v>0.2990065698552939</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.013122916325351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.014535455316945</v>
+      </c>
+      <c r="N23">
+        <v>0.8037444141074204</v>
+      </c>
+      <c r="O23">
+        <v>1.642292360775429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.697811220232325</v>
+        <v>3.290418429583951</v>
       </c>
       <c r="C24">
-        <v>0.8960951666928736</v>
+        <v>0.7094116041085101</v>
       </c>
       <c r="D24">
-        <v>0.0610561106147216</v>
+        <v>0.04074991378430326</v>
       </c>
       <c r="E24">
-        <v>0.0797549034495546</v>
+        <v>0.06454683755605828</v>
       </c>
       <c r="F24">
-        <v>3.466802815435841</v>
+        <v>2.181238178682406</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.007568802581019</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1008189676625761</v>
       </c>
       <c r="K24">
-        <v>0.8237142495493828</v>
+        <v>0.8938628544502762</v>
       </c>
       <c r="L24">
-        <v>0.2521146724766723</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8518242188464242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8638592545248684</v>
+      </c>
+      <c r="N24">
+        <v>0.8732906627587056</v>
+      </c>
+      <c r="O24">
+        <v>1.461220202415646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.170740653036717</v>
+        <v>2.673030673993878</v>
       </c>
       <c r="C25">
-        <v>0.7188948359104756</v>
+        <v>0.5739192604666528</v>
       </c>
       <c r="D25">
-        <v>0.05865091669397771</v>
+        <v>0.03499978463013775</v>
       </c>
       <c r="E25">
-        <v>0.06722618864441543</v>
+        <v>0.05754039581008996</v>
       </c>
       <c r="F25">
-        <v>2.893311609696923</v>
+        <v>1.911747267909575</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.713293966338938</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.09148268403027515</v>
       </c>
       <c r="K25">
-        <v>0.6621497696579581</v>
+        <v>0.7251309215090629</v>
       </c>
       <c r="L25">
-        <v>0.2040669315495478</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6854012322055496</v>
+        <v>0.7065830376309066</v>
+      </c>
+      <c r="N25">
+        <v>0.9566317060435381</v>
+      </c>
+      <c r="O25">
+        <v>1.281552011533918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.230670821832689</v>
+        <v>2.773482813655107</v>
       </c>
       <c r="C2">
-        <v>0.476693291436959</v>
+        <v>0.3520282134289658</v>
       </c>
       <c r="D2">
-        <v>0.03084669276958252</v>
+        <v>0.03437144978149576</v>
       </c>
       <c r="E2">
-        <v>0.05265530798693518</v>
+        <v>0.04453069292171286</v>
       </c>
       <c r="F2">
-        <v>1.728430177909431</v>
+        <v>0.6460835615063303</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08520524228713811</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6041826670434318</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3077215684795647</v>
       </c>
       <c r="M2">
-        <v>0.5941873060510119</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.024263520354459</v>
+        <v>0.6710878221973005</v>
       </c>
       <c r="O2">
-        <v>1.160051783512714</v>
+        <v>1.894124826615155</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.936648429666747</v>
+        <v>2.409507393498927</v>
       </c>
       <c r="C3">
-        <v>0.4119635963264159</v>
+        <v>0.321974753609453</v>
       </c>
       <c r="D3">
-        <v>0.0280729754504172</v>
+        <v>0.03147677953344186</v>
       </c>
       <c r="E3">
-        <v>0.04949048225463137</v>
+        <v>0.04373351138448633</v>
       </c>
       <c r="F3">
-        <v>1.612014108833407</v>
+        <v>0.5905085044191765</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08126779729358447</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5237556798528544</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2700124778259578</v>
       </c>
       <c r="M3">
-        <v>0.5196580151429799</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.073623403131712</v>
+        <v>0.6967298236702746</v>
       </c>
       <c r="O3">
-        <v>1.08328298768231</v>
+        <v>1.758568346442047</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.758418592366013</v>
+        <v>2.186837667900022</v>
       </c>
       <c r="C4">
-        <v>0.3726690264931278</v>
+        <v>0.3034851163391608</v>
       </c>
       <c r="D4">
-        <v>0.02638735068827103</v>
+        <v>0.02969398328732353</v>
       </c>
       <c r="E4">
-        <v>0.04761185436473525</v>
+        <v>0.04333515247189901</v>
       </c>
       <c r="F4">
-        <v>1.543918641145552</v>
+        <v>0.5577019622530415</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07899010981159904</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4749834142964957</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2471284403529665</v>
       </c>
       <c r="M4">
-        <v>0.4745651274783995</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.105555880229538</v>
+        <v>0.713540988760812</v>
       </c>
       <c r="O4">
-        <v>1.038555024668845</v>
+        <v>1.679675944905995</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.686293533629879</v>
+        <v>2.096262803898071</v>
       </c>
       <c r="C5">
-        <v>0.3567526671137671</v>
+        <v>0.2959395441590544</v>
       </c>
       <c r="D5">
-        <v>0.0257044789044869</v>
+        <v>0.02896600230671709</v>
       </c>
       <c r="E5">
-        <v>0.04686154200432036</v>
+        <v>0.04319473385806383</v>
       </c>
       <c r="F5">
-        <v>1.516955794821939</v>
+        <v>0.5446410868776965</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07809488550024923</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4552415401839696</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.237863938114856</v>
       </c>
       <c r="M5">
-        <v>0.4563383294467158</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.118961599033959</v>
+        <v>0.7206514573436991</v>
       </c>
       <c r="O5">
-        <v>1.020887178348858</v>
+        <v>1.648546098272107</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.674345674591393</v>
+        <v>2.08123176482286</v>
       </c>
       <c r="C6">
-        <v>0.354115134260752</v>
+        <v>0.2946859033311853</v>
       </c>
       <c r="D6">
-        <v>0.02559132246387108</v>
+        <v>0.02884502952941048</v>
       </c>
       <c r="E6">
-        <v>0.04673784603718367</v>
+        <v>0.04317271293505165</v>
       </c>
       <c r="F6">
-        <v>1.512524345989917</v>
+        <v>0.5424902932957139</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07794816207872657</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4519708994935741</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2363290618109914</v>
       </c>
       <c r="M6">
-        <v>0.4533202438372612</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.121210905138923</v>
+        <v>0.7218475960721165</v>
       </c>
       <c r="O6">
-        <v>1.017985922345154</v>
+        <v>1.643436555092904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.757443937121849</v>
+        <v>2.18561552657593</v>
       </c>
       <c r="C7">
-        <v>0.3724540032253572</v>
+        <v>0.3033834003396407</v>
       </c>
       <c r="D7">
-        <v>0.02637812535178341</v>
+        <v>0.02968417159348746</v>
       </c>
       <c r="E7">
-        <v>0.04760167493650336</v>
+        <v>0.0433331712806897</v>
       </c>
       <c r="F7">
-        <v>1.54355190767761</v>
+        <v>0.5575246009956984</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07897790591939113</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4747166547502104</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2470032581003068</v>
       </c>
       <c r="M7">
-        <v>0.4743187358582972</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.105735103235538</v>
+        <v>0.7136358420521987</v>
       </c>
       <c r="O7">
-        <v>1.038314544876229</v>
+        <v>1.679252081362392</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.128768258405557</v>
+        <v>2.647790799420306</v>
       </c>
       <c r="C8">
-        <v>0.4542707550351679</v>
+        <v>0.3416723423347747</v>
       </c>
       <c r="D8">
-        <v>0.0298864698262129</v>
+        <v>0.03337443318577016</v>
       </c>
       <c r="E8">
-        <v>0.05155004761734006</v>
+        <v>0.04423629932750472</v>
       </c>
       <c r="F8">
-        <v>1.687547194263217</v>
+        <v>0.626633712302791</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08381717648885711</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.576312125942799</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2946592943785902</v>
       </c>
       <c r="M8">
-        <v>0.5683388942014531</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.040935655055357</v>
+        <v>0.6797025016234386</v>
       </c>
       <c r="O8">
-        <v>1.133053008343765</v>
+        <v>1.846439741830125</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.878834732973758</v>
+        <v>3.562511118721773</v>
       </c>
       <c r="C9">
-        <v>0.6191055312841911</v>
+        <v>0.4165513406688603</v>
       </c>
       <c r="D9">
-        <v>0.03692281650992157</v>
+        <v>0.04057329804179943</v>
       </c>
       <c r="E9">
-        <v>0.05985444678906759</v>
+        <v>0.04677781972102757</v>
       </c>
       <c r="F9">
-        <v>1.999948802109756</v>
+        <v>0.7737138561437575</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09452697382911879</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7813845069332359</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3905834355297202</v>
       </c>
       <c r="M9">
-        <v>0.7589635510712753</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9275290998325829</v>
+        <v>0.622029699000791</v>
       </c>
       <c r="O9">
-        <v>1.340231667784636</v>
+        <v>2.212183975043303</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.448868182526098</v>
+        <v>4.242643060921523</v>
       </c>
       <c r="C10">
-        <v>0.7441614346645338</v>
+        <v>0.4715748218657438</v>
       </c>
       <c r="D10">
-        <v>0.04221636941046825</v>
+        <v>0.04584833982584513</v>
       </c>
       <c r="E10">
-        <v>0.0663734564067191</v>
+        <v>0.04918508461932447</v>
       </c>
       <c r="F10">
-        <v>2.252641112492228</v>
+        <v>0.8904729778065104</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1033073446151249</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9371583209955361</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4630652759411475</v>
       </c>
       <c r="M10">
-        <v>0.9042858609569251</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8537129396283802</v>
+        <v>0.5856636467683316</v>
       </c>
       <c r="O10">
-        <v>1.508998528521573</v>
+        <v>2.509143892963124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.713713949198677</v>
+        <v>4.554529275439222</v>
       </c>
       <c r="C11">
-        <v>0.8022320956920055</v>
+        <v>0.4966421453767396</v>
       </c>
       <c r="D11">
-        <v>0.04465876234225874</v>
+        <v>0.04824732738318716</v>
       </c>
       <c r="E11">
-        <v>0.06944861669845892</v>
+        <v>0.05041423220143137</v>
       </c>
       <c r="F11">
-        <v>2.373848669867726</v>
+        <v>0.9458761617885187</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1075418218906847</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.009520583341484</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4965953971618546</v>
       </c>
       <c r="M11">
-        <v>0.971906906037816</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8224913279080042</v>
+        <v>0.5705675779415742</v>
       </c>
       <c r="O11">
-        <v>1.59024988756083</v>
+        <v>2.651611422997149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.814931191712049</v>
+        <v>4.67305478797698</v>
       </c>
       <c r="C12">
-        <v>0.8244220963179316</v>
+        <v>0.5061427695666225</v>
       </c>
       <c r="D12">
-        <v>0.04558925369301647</v>
+        <v>0.04915586543450701</v>
       </c>
       <c r="E12">
-        <v>0.07063060812347999</v>
+        <v>0.05090046280360205</v>
       </c>
       <c r="F12">
-        <v>2.420760989699318</v>
+        <v>0.9672208598847476</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.109183790435246</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.037174211627672</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5093833801807506</v>
       </c>
       <c r="M12">
-        <v>0.9977649518544141</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8110357420451635</v>
+        <v>0.5650722525346126</v>
       </c>
       <c r="O12">
-        <v>1.621744426907682</v>
+        <v>2.706733208676098</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.793088842555392</v>
+        <v>4.647508418816358</v>
       </c>
       <c r="C13">
-        <v>0.8196336784250491</v>
+        <v>0.5040962279304892</v>
       </c>
       <c r="D13">
-        <v>0.04538859460986089</v>
+        <v>0.04896018815397696</v>
       </c>
       <c r="E13">
-        <v>0.07037523750476282</v>
+        <v>0.05079479512406593</v>
       </c>
       <c r="F13">
-        <v>2.410610548807767</v>
+        <v>0.9626070797424831</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.108828385459482</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.031206702392993</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5066250397592427</v>
       </c>
       <c r="M13">
-        <v>0.9921841979724277</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8134860833299697</v>
+        <v>0.5662457100541403</v>
       </c>
       <c r="O13">
-        <v>1.614927795202462</v>
+        <v>2.694807733557155</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.722021800107996</v>
+        <v>4.56427162529485</v>
       </c>
       <c r="C14">
-        <v>0.8040534903844616</v>
+        <v>0.4974235862019327</v>
       </c>
       <c r="D14">
-        <v>0.04473519783871183</v>
+        <v>0.04832207033710034</v>
       </c>
       <c r="E14">
-        <v>0.06954549865418258</v>
+        <v>0.05045380925808729</v>
       </c>
       <c r="F14">
-        <v>2.377687161588483</v>
+        <v>0.9476246797002545</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.107676112792582</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.01179040126955</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4976455873372316</v>
       </c>
       <c r="M14">
-        <v>0.9740290170059893</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8215413337861008</v>
+        <v>0.5701109616387185</v>
       </c>
       <c r="O14">
-        <v>1.592825898830654</v>
+        <v>2.656122158867674</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.678615867776273</v>
+        <v>4.513343462262185</v>
       </c>
       <c r="C15">
-        <v>0.7945371550565312</v>
+        <v>0.4933375548158665</v>
       </c>
       <c r="D15">
-        <v>0.04433572544529341</v>
+        <v>0.04793122282844564</v>
       </c>
       <c r="E15">
-        <v>0.06903959248136715</v>
+        <v>0.05024769800846229</v>
       </c>
       <c r="F15">
-        <v>2.357656241217711</v>
+        <v>0.9384961274852941</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1069754451843039</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9999312575750281</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4921575758585419</v>
       </c>
       <c r="M15">
-        <v>0.9629422548410815</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8265241438394995</v>
+        <v>0.5725077573272941</v>
       </c>
       <c r="O15">
-        <v>1.579385052625057</v>
+        <v>2.632582267494683</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.431682054562486</v>
+        <v>4.222315934669382</v>
       </c>
       <c r="C16">
-        <v>0.7403926479097436</v>
+        <v>0.469937594335164</v>
       </c>
       <c r="D16">
-        <v>0.04205749984154039</v>
+        <v>0.04569156278044773</v>
       </c>
       <c r="E16">
-        <v>0.06617483731624318</v>
+        <v>0.04910758052912634</v>
       </c>
       <c r="F16">
-        <v>2.244855271341848</v>
+        <v>0.8869012857309855</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1030357712087238</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9324624410017037</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4608861184068473</v>
       </c>
       <c r="M16">
-        <v>0.8998999244573511</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8558031384188638</v>
+        <v>0.5866804299939758</v>
       </c>
       <c r="O16">
-        <v>1.503785519013547</v>
+        <v>2.499991106776719</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.281701862007083</v>
+        <v>4.044460989520871</v>
       </c>
       <c r="C17">
-        <v>0.7074997509251659</v>
+        <v>0.4555938757207798</v>
       </c>
       <c r="D17">
-        <v>0.0406691291867034</v>
+        <v>0.04431756373159601</v>
       </c>
       <c r="E17">
-        <v>0.06444665714080955</v>
+        <v>0.04844352751852199</v>
       </c>
       <c r="F17">
-        <v>2.177335225138435</v>
+        <v>0.8558602085481084</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1006830981525368</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8914810213206437</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4418522633773563</v>
       </c>
       <c r="M17">
-        <v>0.8616359961684878</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8743879002165471</v>
+        <v>0.5957545750112772</v>
       </c>
       <c r="O17">
-        <v>1.458610535993543</v>
+        <v>2.420617145844545</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.195949597599281</v>
+        <v>3.942393915476032</v>
       </c>
       <c r="C18">
-        <v>0.6886899114191749</v>
+        <v>0.4473470303088334</v>
       </c>
       <c r="D18">
-        <v>0.03987376148159427</v>
+        <v>0.04352720179274883</v>
       </c>
       <c r="E18">
-        <v>0.06346285881755875</v>
+        <v>0.04807410515019761</v>
       </c>
       <c r="F18">
-        <v>2.139080858772715</v>
+        <v>0.8382193532191451</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09935225757368471</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8680484061699616</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4309563074359488</v>
       </c>
       <c r="M18">
-        <v>0.8397677950444944</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8852974122807069</v>
+        <v>0.6011091412939606</v>
       </c>
       <c r="O18">
-        <v>1.433043174740888</v>
+        <v>2.375650720262399</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.166999620767115</v>
+        <v>3.907873497316984</v>
       </c>
       <c r="C19">
-        <v>0.6823391355485171</v>
+        <v>0.4445552708401692</v>
       </c>
       <c r="D19">
-        <v>0.03960499167123999</v>
+        <v>0.04325958069039615</v>
       </c>
       <c r="E19">
-        <v>0.06313146453310026</v>
+        <v>0.04795113203300261</v>
       </c>
       <c r="F19">
-        <v>2.126225167224433</v>
+        <v>0.8322820323367779</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09890538464815535</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8601373356610651</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4272757122692212</v>
       </c>
       <c r="M19">
-        <v>0.8323867053471332</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8890281668986901</v>
+        <v>0.6029449684912223</v>
       </c>
       <c r="O19">
-        <v>1.424455604373961</v>
+        <v>2.36054066802248</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.297613583667953</v>
+        <v>4.063369669517328</v>
       </c>
       <c r="C20">
-        <v>0.710989739430488</v>
+        <v>0.4571204294412894</v>
       </c>
       <c r="D20">
-        <v>0.0408165892108201</v>
+        <v>0.04446383463726988</v>
       </c>
       <c r="E20">
-        <v>0.06462955670811255</v>
+        <v>0.04851291045505235</v>
       </c>
       <c r="F20">
-        <v>2.184461892819968</v>
+        <v>0.8591422749523048</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1009312035408882</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8958289490828406</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4438730127329222</v>
       </c>
       <c r="M20">
-        <v>0.8656945132666252</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8723865512599502</v>
+        <v>0.5947745156060691</v>
       </c>
       <c r="O20">
-        <v>1.46337585764185</v>
+        <v>2.428994719914357</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.742869676637554</v>
+        <v>4.588708337509502</v>
       </c>
       <c r="C21">
-        <v>0.8086240883949358</v>
+        <v>0.4993832567348875</v>
       </c>
       <c r="D21">
-        <v>0.0449269582742815</v>
+        <v>0.04850949687799044</v>
       </c>
       <c r="E21">
-        <v>0.06978872355773547</v>
+        <v>0.05055338863334313</v>
       </c>
       <c r="F21">
-        <v>2.387329076997801</v>
+        <v>0.9520151779875619</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1080134859591269</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.017486304696959</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5002805153229701</v>
       </c>
       <c r="M21">
-        <v>0.9793545219600404</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8191650996555069</v>
+        <v>0.5689695297905715</v>
       </c>
       <c r="O21">
-        <v>1.599297344122093</v>
+        <v>2.667452299061864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.039338218890464</v>
+        <v>4.934534291639636</v>
       </c>
       <c r="C22">
-        <v>0.8736154257530302</v>
+        <v>0.5270536344733614</v>
       </c>
       <c r="D22">
-        <v>0.04764639615580535</v>
+        <v>0.05115421739838411</v>
       </c>
       <c r="E22">
-        <v>0.07326345097414588</v>
+        <v>0.05200885255590748</v>
       </c>
       <c r="F22">
-        <v>2.525885194083372</v>
+        <v>1.014857410684002</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1128685012583261</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.098482666867099</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5376812158443869</v>
       </c>
       <c r="M22">
-        <v>1.055121890664353</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.786538615307677</v>
+        <v>0.5534007942752908</v>
       </c>
       <c r="O22">
-        <v>1.692409136279124</v>
+        <v>2.83019013284752</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.880560238658518</v>
+        <v>4.749710784505567</v>
       </c>
       <c r="C23">
-        <v>0.8388093936037535</v>
+        <v>0.5122799100020643</v>
       </c>
       <c r="D23">
-        <v>0.04619171014602586</v>
+        <v>0.04974255401572947</v>
       </c>
       <c r="E23">
-        <v>0.07139888617421519</v>
+        <v>0.05122036601449942</v>
       </c>
       <c r="F23">
-        <v>2.451347812523395</v>
+        <v>0.9811086106169711</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1102551696550265</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.055104447110253</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.517667047822215</v>
       </c>
       <c r="M23">
-        <v>1.014535455316945</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8037444141074204</v>
+        <v>0.5615869025859297</v>
       </c>
       <c r="O23">
-        <v>1.642292360775429</v>
+        <v>2.74266411356453</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.290418429583951</v>
+        <v>4.054820486534538</v>
       </c>
       <c r="C24">
-        <v>0.7094116041085101</v>
+        <v>0.4564302761213526</v>
       </c>
       <c r="D24">
-        <v>0.04074991378430326</v>
+        <v>0.04439770691907796</v>
       </c>
       <c r="E24">
-        <v>0.06454683755605828</v>
+        <v>0.04848150407231699</v>
       </c>
       <c r="F24">
-        <v>2.181238178682406</v>
+        <v>0.8576578166292705</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1008189676625761</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8938628544502762</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4429592867828092</v>
       </c>
       <c r="M24">
-        <v>0.8638592545248684</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8732906627587056</v>
+        <v>0.5952171724804316</v>
       </c>
       <c r="O24">
-        <v>1.461220202415646</v>
+        <v>2.425205150298837</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.673030673993878</v>
+        <v>3.313863088783023</v>
       </c>
       <c r="C25">
-        <v>0.5739192604666528</v>
+        <v>0.3963033473883115</v>
       </c>
       <c r="D25">
-        <v>0.03499978463013775</v>
+        <v>0.03862897080030336</v>
       </c>
       <c r="E25">
-        <v>0.05754039581008996</v>
+        <v>0.04600080470204126</v>
       </c>
       <c r="F25">
-        <v>1.911747267909575</v>
+        <v>0.7325237515383662</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09148268403027515</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7251309215090629</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.364319418034043</v>
       </c>
       <c r="M25">
-        <v>0.7065830376309066</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9566317060435381</v>
+        <v>0.6366228707312729</v>
       </c>
       <c r="O25">
-        <v>1.281552011533918</v>
+        <v>2.108674583986868</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.773482813655107</v>
+        <v>1.194828579899138</v>
       </c>
       <c r="C2">
-        <v>0.3520282134289658</v>
+        <v>0.2170881049814568</v>
       </c>
       <c r="D2">
-        <v>0.03437144978149576</v>
+        <v>0.02325209133015704</v>
       </c>
       <c r="E2">
-        <v>0.04453069292171286</v>
+        <v>0.09891205464731279</v>
       </c>
       <c r="F2">
-        <v>0.6460835615063303</v>
+        <v>0.7763925801715814</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3077215684795647</v>
+        <v>0.212214618074313</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6710878221973005</v>
+        <v>1.152311375679432</v>
       </c>
       <c r="O2">
-        <v>1.894124826615155</v>
+        <v>2.66100384504972</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.409507393498927</v>
+        <v>1.090023758153961</v>
       </c>
       <c r="C3">
-        <v>0.321974753609453</v>
+        <v>0.2070080621694927</v>
       </c>
       <c r="D3">
-        <v>0.03147677953344186</v>
+        <v>0.02224389641261837</v>
       </c>
       <c r="E3">
-        <v>0.04373351138448633</v>
+        <v>0.09950659437024001</v>
       </c>
       <c r="F3">
-        <v>0.5905085044191765</v>
+        <v>0.7690441028765775</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2700124778259578</v>
+        <v>0.2029099639223659</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6967298236702746</v>
+        <v>1.16370447432535</v>
       </c>
       <c r="O3">
-        <v>1.758568346442047</v>
+        <v>2.651355265332029</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.186837667900022</v>
+        <v>1.025899365142493</v>
       </c>
       <c r="C4">
-        <v>0.3034851163391608</v>
+        <v>0.2007727506100849</v>
       </c>
       <c r="D4">
-        <v>0.02969398328732353</v>
+        <v>0.02162031459644354</v>
       </c>
       <c r="E4">
-        <v>0.04333515247189901</v>
+        <v>0.09992322555521049</v>
       </c>
       <c r="F4">
-        <v>0.5577019622530415</v>
+        <v>0.7650888328931629</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2471284403529665</v>
+        <v>0.1973047040675198</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.713540988760812</v>
+        <v>1.171190191582255</v>
       </c>
       <c r="O4">
-        <v>1.679675944905995</v>
+        <v>2.647313203223092</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.096262803898071</v>
+        <v>0.9998263544598558</v>
       </c>
       <c r="C5">
-        <v>0.2959395441590544</v>
+        <v>0.1982203687496309</v>
       </c>
       <c r="D5">
-        <v>0.02896600230671709</v>
+        <v>0.0213650737288269</v>
       </c>
       <c r="E5">
-        <v>0.04319473385806383</v>
+        <v>0.1001059769190888</v>
       </c>
       <c r="F5">
-        <v>0.5446410868776965</v>
+        <v>0.7636168359997342</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.237863938114856</v>
+        <v>0.1950476885298542</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7206514573436991</v>
+        <v>1.17436401216753</v>
       </c>
       <c r="O5">
-        <v>1.648546098272107</v>
+        <v>2.646138631301056</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.08123176482286</v>
+        <v>0.9955005050966292</v>
       </c>
       <c r="C6">
-        <v>0.2946859033311853</v>
+        <v>0.1977958612505404</v>
       </c>
       <c r="D6">
-        <v>0.02884502952941048</v>
+        <v>0.0213226236564239</v>
       </c>
       <c r="E6">
-        <v>0.04317271293505165</v>
+        <v>0.1001371060547349</v>
       </c>
       <c r="F6">
-        <v>0.5424902932957139</v>
+        <v>0.7633808506751265</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2363290618109914</v>
+        <v>0.1946745557265643</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7218475960721165</v>
+        <v>1.174898472694672</v>
       </c>
       <c r="O6">
-        <v>1.643436555092904</v>
+        <v>2.64597211820103</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.18561552657593</v>
+        <v>1.025547497997707</v>
       </c>
       <c r="C7">
-        <v>0.3033834003396407</v>
+        <v>0.2007383744144278</v>
       </c>
       <c r="D7">
-        <v>0.02968417159348746</v>
+        <v>0.02161687686643177</v>
       </c>
       <c r="E7">
-        <v>0.0433331712806897</v>
+        <v>0.09992563768537188</v>
       </c>
       <c r="F7">
-        <v>0.5575246009956984</v>
+        <v>0.7650684151992451</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2470032581003068</v>
+        <v>0.1972741550656139</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7136358420521987</v>
+        <v>1.171232495426999</v>
       </c>
       <c r="O7">
-        <v>1.679252081362392</v>
+        <v>2.647295449918147</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.647790799420306</v>
+        <v>1.158645690242849</v>
       </c>
       <c r="C8">
-        <v>0.3416723423347747</v>
+        <v>0.2136221702924956</v>
       </c>
       <c r="D8">
-        <v>0.03337443318577016</v>
+        <v>0.02290541910641508</v>
       </c>
       <c r="E8">
-        <v>0.04423629932750472</v>
+        <v>0.09910634624981185</v>
       </c>
       <c r="F8">
-        <v>0.626633712302791</v>
+        <v>0.7737431608608674</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2946592943785902</v>
+        <v>0.2089840230086253</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6797025016234386</v>
+        <v>1.156137974602188</v>
       </c>
       <c r="O8">
-        <v>1.846439741830125</v>
+        <v>2.657285933822692</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.562511118721773</v>
+        <v>1.421400947532618</v>
       </c>
       <c r="C9">
-        <v>0.4165513406688603</v>
+        <v>0.2385155255672942</v>
       </c>
       <c r="D9">
-        <v>0.04057329804179943</v>
+        <v>0.02539554518413212</v>
       </c>
       <c r="E9">
-        <v>0.04677781972102757</v>
+        <v>0.09790903914424831</v>
       </c>
       <c r="F9">
-        <v>0.7737138561437575</v>
+        <v>0.7951821495015423</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3905834355297202</v>
+        <v>0.2328015675969368</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.622029699000791</v>
+        <v>1.130426422940822</v>
       </c>
       <c r="O9">
-        <v>2.212183975043303</v>
+        <v>2.691848309765248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.242643060921523</v>
+        <v>1.615474074365636</v>
       </c>
       <c r="C10">
-        <v>0.4715748218657438</v>
+        <v>0.2565719894211043</v>
       </c>
       <c r="D10">
-        <v>0.04584833982584513</v>
+        <v>0.02720198638427718</v>
       </c>
       <c r="E10">
-        <v>0.04918508461932447</v>
+        <v>0.09727905442996843</v>
       </c>
       <c r="F10">
-        <v>0.8904729778065104</v>
+        <v>0.8136502656608684</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4630652759411475</v>
+        <v>0.2508218888156648</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5856636467683316</v>
+        <v>1.113904723711698</v>
       </c>
       <c r="O10">
-        <v>2.509143892963124</v>
+        <v>2.726426362757309</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.554529275439222</v>
+        <v>1.703978700736286</v>
       </c>
       <c r="C11">
-        <v>0.4966421453767396</v>
+        <v>0.2647346361290204</v>
       </c>
       <c r="D11">
-        <v>0.04824732738318716</v>
+        <v>0.0280186437467691</v>
       </c>
       <c r="E11">
-        <v>0.05041423220143137</v>
+        <v>0.09704671115884622</v>
       </c>
       <c r="F11">
-        <v>0.9458761617885187</v>
+        <v>0.8226457974670183</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4965953971618546</v>
+        <v>0.2591333208483917</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5705675779415742</v>
+        <v>1.106902547696258</v>
       </c>
       <c r="O11">
-        <v>2.651611422997149</v>
+        <v>2.744164293284825</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.67305478797698</v>
+        <v>1.737523650117055</v>
       </c>
       <c r="C12">
-        <v>0.5061427695666225</v>
+        <v>0.2678181003560098</v>
       </c>
       <c r="D12">
-        <v>0.04915586543450701</v>
+        <v>0.02832714209637999</v>
       </c>
       <c r="E12">
-        <v>0.05090046280360205</v>
+        <v>0.09696653071968875</v>
       </c>
       <c r="F12">
-        <v>0.9672208598847476</v>
+        <v>0.826137886513294</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5093833801807506</v>
+        <v>0.2622969971709921</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5650722525346126</v>
+        <v>1.104324859715156</v>
       </c>
       <c r="O12">
-        <v>2.706733208676098</v>
+        <v>2.751170867853546</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.647508418816358</v>
+        <v>1.730297826171238</v>
       </c>
       <c r="C13">
-        <v>0.5040962279304892</v>
+        <v>0.2671543598127073</v>
       </c>
       <c r="D13">
-        <v>0.04896018815397696</v>
+        <v>0.0282607351990336</v>
       </c>
       <c r="E13">
-        <v>0.05079479512406593</v>
+        <v>0.09698345192269286</v>
       </c>
       <c r="F13">
-        <v>0.9626070797424831</v>
+        <v>0.8253819887171119</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5066250397592427</v>
+        <v>0.2616149181192924</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5662457100541403</v>
+        <v>1.104876724474579</v>
       </c>
       <c r="O13">
-        <v>2.694807733557155</v>
+        <v>2.749648983206214</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.56427162529485</v>
+        <v>1.706737867512345</v>
       </c>
       <c r="C14">
-        <v>0.4974235862019327</v>
+        <v>0.2649884669413041</v>
       </c>
       <c r="D14">
-        <v>0.04832207033710034</v>
+        <v>0.0280440392693535</v>
       </c>
       <c r="E14">
-        <v>0.05045380925808729</v>
+        <v>0.09703995826488843</v>
       </c>
       <c r="F14">
-        <v>0.9476246797002545</v>
+        <v>0.8229313754082597</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4976455873372316</v>
+        <v>0.2593932717276175</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5701109616387185</v>
+        <v>1.10668899884606</v>
       </c>
       <c r="O14">
-        <v>2.656122158867674</v>
+        <v>2.744734919531027</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.513343462262185</v>
+        <v>1.692310598760628</v>
       </c>
       <c r="C15">
-        <v>0.4933375548158665</v>
+        <v>0.2636608063158405</v>
       </c>
       <c r="D15">
-        <v>0.04793122282844564</v>
+        <v>0.02791120826901761</v>
       </c>
       <c r="E15">
-        <v>0.05024769800846229</v>
+        <v>0.0970755862986401</v>
       </c>
       <c r="F15">
-        <v>0.9384961274852941</v>
+        <v>0.821441468037662</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4921575758585419</v>
+        <v>0.2580345723620923</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5725077573272941</v>
+        <v>1.107808691947341</v>
       </c>
       <c r="O15">
-        <v>2.632582267494683</v>
+        <v>2.741762653354385</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.222315934669382</v>
+        <v>1.609694388645153</v>
       </c>
       <c r="C16">
-        <v>0.469937594335164</v>
+        <v>0.2560374936823848</v>
       </c>
       <c r="D16">
-        <v>0.04569156278044773</v>
+        <v>0.0271485116659278</v>
       </c>
       <c r="E16">
-        <v>0.04910758052912634</v>
+        <v>0.09729533033498861</v>
       </c>
       <c r="F16">
-        <v>0.8869012857309855</v>
+        <v>0.8130743638329108</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4608861184068473</v>
+        <v>0.2502810038860446</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5866804299939758</v>
+        <v>1.114372669914133</v>
       </c>
       <c r="O16">
-        <v>2.499991106776719</v>
+        <v>2.725307628259515</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.044460989520871</v>
+        <v>1.559067288818142</v>
       </c>
       <c r="C17">
-        <v>0.4555938757207798</v>
+        <v>0.2513475691720544</v>
       </c>
       <c r="D17">
-        <v>0.04431756373159601</v>
+        <v>0.02667930216745873</v>
       </c>
       <c r="E17">
-        <v>0.04844352751852199</v>
+        <v>0.09744403065693241</v>
       </c>
       <c r="F17">
-        <v>0.8558602085481084</v>
+        <v>0.8080937843583627</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4418522633773563</v>
+        <v>0.2455535692936337</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5957545750112772</v>
+        <v>1.118531026435591</v>
       </c>
       <c r="O17">
-        <v>2.420617145844545</v>
+        <v>2.715727941592206</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.942393915476032</v>
+        <v>1.529968693121248</v>
       </c>
       <c r="C18">
-        <v>0.4473470303088334</v>
+        <v>0.248645227518864</v>
       </c>
       <c r="D18">
-        <v>0.04352720179274883</v>
+        <v>0.02640894616511957</v>
       </c>
       <c r="E18">
-        <v>0.04807410515019761</v>
+        <v>0.09753466427133795</v>
       </c>
       <c r="F18">
-        <v>0.8382193532191451</v>
+        <v>0.8052850114918186</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4309563074359488</v>
+        <v>0.2428451981714517</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6011091412939606</v>
+        <v>1.120971146377784</v>
       </c>
       <c r="O18">
-        <v>2.375650720262399</v>
+        <v>2.710406931092308</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.907873497316984</v>
+        <v>1.520120020252477</v>
       </c>
       <c r="C19">
-        <v>0.4445552708401692</v>
+        <v>0.2477294382818229</v>
       </c>
       <c r="D19">
-        <v>0.04325958069039615</v>
+        <v>0.02631732654386809</v>
       </c>
       <c r="E19">
-        <v>0.04795113203300261</v>
+        <v>0.09756622796606251</v>
       </c>
       <c r="F19">
-        <v>0.8322820323367779</v>
+        <v>0.8043436077378345</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4272757122692212</v>
+        <v>0.2419300339969652</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6029449684912223</v>
+        <v>1.121805631386472</v>
       </c>
       <c r="O19">
-        <v>2.36054066802248</v>
+        <v>2.708637759218277</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.063369669517328</v>
+        <v>1.564454490507444</v>
       </c>
       <c r="C20">
-        <v>0.4571204294412894</v>
+        <v>0.2518473198586264</v>
       </c>
       <c r="D20">
-        <v>0.04446383463726988</v>
+        <v>0.02672930003939911</v>
       </c>
       <c r="E20">
-        <v>0.04851291045505235</v>
+        <v>0.09742767286917875</v>
       </c>
       <c r="F20">
-        <v>0.8591422749523048</v>
+        <v>0.8086181859662105</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4438730127329222</v>
+        <v>0.2460557033023605</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5947745156060691</v>
+        <v>1.118083358771003</v>
       </c>
       <c r="O20">
-        <v>2.428994719914357</v>
+        <v>2.716728151697907</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.588708337509502</v>
+        <v>1.713657191149082</v>
       </c>
       <c r="C21">
-        <v>0.4993832567348875</v>
+        <v>0.2656248485309618</v>
       </c>
       <c r="D21">
-        <v>0.04850949687799044</v>
+        <v>0.02810770867469614</v>
       </c>
       <c r="E21">
-        <v>0.05055338863334313</v>
+        <v>0.09702314918731503</v>
       </c>
       <c r="F21">
-        <v>0.9520151779875619</v>
+        <v>0.8236488529773851</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5002805153229701</v>
+        <v>0.2600453807628185</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5689695297905715</v>
+        <v>1.106154684515104</v>
       </c>
       <c r="O21">
-        <v>2.667452299061864</v>
+        <v>2.746170432752024</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.934534291639636</v>
+        <v>1.811344960305803</v>
       </c>
       <c r="C22">
-        <v>0.5270536344733614</v>
+        <v>0.2745851564138206</v>
       </c>
       <c r="D22">
-        <v>0.05115421739838411</v>
+        <v>0.02900418625663548</v>
       </c>
       <c r="E22">
-        <v>0.05200885255590748</v>
+        <v>0.09680425247719526</v>
       </c>
       <c r="F22">
-        <v>1.014857410684002</v>
+        <v>0.8339717507095514</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5376812158443869</v>
+        <v>0.2692835256879391</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5534007942752908</v>
+        <v>1.098789274595937</v>
       </c>
       <c r="O22">
-        <v>2.83019013284752</v>
+        <v>2.767101089965735</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.749710784505567</v>
+        <v>1.759191604286855</v>
       </c>
       <c r="C23">
-        <v>0.5122799100020643</v>
+        <v>0.2698069635567606</v>
       </c>
       <c r="D23">
-        <v>0.04974255401572947</v>
+        <v>0.0285261272538051</v>
       </c>
       <c r="E23">
-        <v>0.05122036601449942</v>
+        <v>0.09691691899231536</v>
       </c>
       <c r="F23">
-        <v>0.9811086106169711</v>
+        <v>0.8284164510124015</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.517667047822215</v>
+        <v>0.2643442739981481</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5615869025859297</v>
+        <v>1.102680916745427</v>
       </c>
       <c r="O23">
-        <v>2.74266411356453</v>
+        <v>2.755775239953834</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.054820486534538</v>
+        <v>1.562018912846838</v>
       </c>
       <c r="C24">
-        <v>0.4564302761213526</v>
+        <v>0.2516214013805609</v>
       </c>
       <c r="D24">
-        <v>0.04439770691907796</v>
+        <v>0.02670669787237756</v>
       </c>
       <c r="E24">
-        <v>0.04848150407231699</v>
+        <v>0.09743505220290416</v>
       </c>
       <c r="F24">
-        <v>0.8576578166292705</v>
+        <v>0.8083809338497474</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4429592867828092</v>
+        <v>0.2458286589419743</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5952171724804316</v>
+        <v>1.118285595362629</v>
       </c>
       <c r="O24">
-        <v>2.425205150298837</v>
+        <v>2.716275375893474</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.313863088783023</v>
+        <v>1.350135486690192</v>
       </c>
       <c r="C25">
-        <v>0.3963033473883115</v>
+        <v>0.2318216392682757</v>
       </c>
       <c r="D25">
-        <v>0.03862897080030336</v>
+        <v>0.02472589985637086</v>
       </c>
       <c r="E25">
-        <v>0.04600080470204126</v>
+        <v>0.09818910709614137</v>
       </c>
       <c r="F25">
-        <v>0.7325237515383662</v>
+        <v>0.7889064867293314</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.364319418034043</v>
+        <v>0.2262667429533423</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6366228707312729</v>
+        <v>1.136965999057317</v>
       </c>
       <c r="O25">
-        <v>2.108674583986868</v>
+        <v>2.68088948608613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.194828579899138</v>
+        <v>2.773482813655164</v>
       </c>
       <c r="C2">
-        <v>0.2170881049814568</v>
+        <v>0.3520282134290653</v>
       </c>
       <c r="D2">
-        <v>0.02325209133015704</v>
+        <v>0.03437144978166629</v>
       </c>
       <c r="E2">
-        <v>0.09891205464731279</v>
+        <v>0.04453069292169687</v>
       </c>
       <c r="F2">
-        <v>0.7763925801715814</v>
+        <v>0.6460835615063232</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.212214618074313</v>
+        <v>0.3077215684796215</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.152311375679432</v>
+        <v>0.6710878221973502</v>
       </c>
       <c r="O2">
-        <v>2.66100384504972</v>
+        <v>1.894124826615126</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.090023758153961</v>
+        <v>2.409507393498927</v>
       </c>
       <c r="C3">
-        <v>0.2070080621694927</v>
+        <v>0.3219747536094673</v>
       </c>
       <c r="D3">
-        <v>0.02224389641261837</v>
+        <v>0.03147677953360883</v>
       </c>
       <c r="E3">
-        <v>0.09950659437024001</v>
+        <v>0.04373351138446857</v>
       </c>
       <c r="F3">
-        <v>0.7690441028765775</v>
+        <v>0.5905085044191907</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2029099639223659</v>
+        <v>0.2700124778260431</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.16370447432535</v>
+        <v>0.6967298236703385</v>
       </c>
       <c r="O3">
-        <v>2.651355265332029</v>
+        <v>1.75856834644199</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.025899365142493</v>
+        <v>2.186837667900022</v>
       </c>
       <c r="C4">
-        <v>0.2007727506100849</v>
+        <v>0.303485116339175</v>
       </c>
       <c r="D4">
-        <v>0.02162031459644354</v>
+        <v>0.02969398328738038</v>
       </c>
       <c r="E4">
-        <v>0.09992322555521049</v>
+        <v>0.04333515247187236</v>
       </c>
       <c r="F4">
-        <v>0.7650888328931629</v>
+        <v>0.5577019622530415</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1973047040675198</v>
+        <v>0.2471284403529381</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.171190191582255</v>
+        <v>0.7135409887608191</v>
       </c>
       <c r="O4">
-        <v>2.647313203223092</v>
+        <v>1.679675944906023</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9998263544598558</v>
+        <v>2.096262803898071</v>
       </c>
       <c r="C5">
-        <v>0.1982203687496309</v>
+        <v>0.2959395441588271</v>
       </c>
       <c r="D5">
-        <v>0.0213650737288269</v>
+        <v>0.02896600230672775</v>
       </c>
       <c r="E5">
-        <v>0.1001059769190888</v>
+        <v>0.04319473385803718</v>
       </c>
       <c r="F5">
-        <v>0.7636168359997342</v>
+        <v>0.5446410868776823</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1950476885298542</v>
+        <v>0.237863938114927</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.17436401216753</v>
+        <v>0.7206514573437062</v>
       </c>
       <c r="O5">
-        <v>2.646138631301056</v>
+        <v>1.648546098272078</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9955005050966292</v>
+        <v>2.081231764822803</v>
       </c>
       <c r="C6">
-        <v>0.1977958612505404</v>
+        <v>0.2946859033317537</v>
       </c>
       <c r="D6">
-        <v>0.0213226236564239</v>
+        <v>0.0288450295292968</v>
       </c>
       <c r="E6">
-        <v>0.1001371060547349</v>
+        <v>0.04317271293508007</v>
       </c>
       <c r="F6">
-        <v>0.7633808506751265</v>
+        <v>0.5424902932957281</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1946745557265643</v>
+        <v>0.2363290618111051</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.174898472694672</v>
+        <v>0.7218475960721733</v>
       </c>
       <c r="O6">
-        <v>2.64597211820103</v>
+        <v>1.643436555092904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.025547497997707</v>
+        <v>2.18561552657593</v>
       </c>
       <c r="C7">
-        <v>0.2007383744144278</v>
+        <v>0.3033834003394276</v>
       </c>
       <c r="D7">
-        <v>0.02161687686643177</v>
+        <v>0.0296841715935301</v>
       </c>
       <c r="E7">
-        <v>0.09992563768537188</v>
+        <v>0.04333317128068792</v>
       </c>
       <c r="F7">
-        <v>0.7650684151992451</v>
+        <v>0.5575246009957127</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1972741550656139</v>
+        <v>0.2470032581004631</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.171232495426999</v>
+        <v>0.7136358420521773</v>
       </c>
       <c r="O7">
-        <v>2.647295449918147</v>
+        <v>1.679252081362336</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.158645690242849</v>
+        <v>2.647790799420534</v>
       </c>
       <c r="C8">
-        <v>0.2136221702924956</v>
+        <v>0.3416723423345616</v>
       </c>
       <c r="D8">
-        <v>0.02290541910641508</v>
+        <v>0.03337443318577726</v>
       </c>
       <c r="E8">
-        <v>0.09910634624981185</v>
+        <v>0.04423629932750295</v>
       </c>
       <c r="F8">
-        <v>0.7737431608608674</v>
+        <v>0.6266337123028123</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2089840230086253</v>
+        <v>0.2946592943784907</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.156137974602188</v>
+        <v>0.6797025016234528</v>
       </c>
       <c r="O8">
-        <v>2.657285933822692</v>
+        <v>1.846439741830039</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.421400947532618</v>
+        <v>3.562511118721602</v>
       </c>
       <c r="C9">
-        <v>0.2385155255672942</v>
+        <v>0.4165513406688888</v>
       </c>
       <c r="D9">
-        <v>0.02539554518413212</v>
+        <v>0.04057329804179233</v>
       </c>
       <c r="E9">
-        <v>0.09790903914424831</v>
+        <v>0.04677781972104356</v>
       </c>
       <c r="F9">
-        <v>0.7951821495015423</v>
+        <v>0.7737138561437433</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2328015675969368</v>
+        <v>0.3905834355296491</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.130426422940822</v>
+        <v>0.6220296990007768</v>
       </c>
       <c r="O9">
-        <v>2.691848309765248</v>
+        <v>2.212183975043303</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.615474074365636</v>
+        <v>4.242643060921694</v>
       </c>
       <c r="C10">
-        <v>0.2565719894211043</v>
+        <v>0.471574821865488</v>
       </c>
       <c r="D10">
-        <v>0.02720198638427718</v>
+        <v>0.04584833982573855</v>
       </c>
       <c r="E10">
-        <v>0.09727905442996843</v>
+        <v>0.04918508461930493</v>
       </c>
       <c r="F10">
-        <v>0.8136502656608684</v>
+        <v>0.8904729778065104</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2508218888156648</v>
+        <v>0.4630652759410623</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.113904723711698</v>
+        <v>0.5856636467682819</v>
       </c>
       <c r="O10">
-        <v>2.726426362757309</v>
+        <v>2.509143892963095</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.703978700736286</v>
+        <v>4.554529275439165</v>
       </c>
       <c r="C11">
-        <v>0.2647346361290204</v>
+        <v>0.4966421453768533</v>
       </c>
       <c r="D11">
-        <v>0.0280186437467691</v>
+        <v>0.04824732738319426</v>
       </c>
       <c r="E11">
-        <v>0.09704671115884622</v>
+        <v>0.05041423220143137</v>
       </c>
       <c r="F11">
-        <v>0.8226457974670183</v>
+        <v>0.9458761617885187</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2591333208483917</v>
+        <v>0.4965953971617409</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.106902547696258</v>
+        <v>0.5705675779415174</v>
       </c>
       <c r="O11">
-        <v>2.744164293284825</v>
+        <v>2.651611422997206</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.737523650117055</v>
+        <v>4.673054787976639</v>
       </c>
       <c r="C12">
-        <v>0.2678181003560098</v>
+        <v>0.5061427695665373</v>
       </c>
       <c r="D12">
-        <v>0.02832714209637999</v>
+        <v>0.04915586543455674</v>
       </c>
       <c r="E12">
-        <v>0.09696653071968875</v>
+        <v>0.05090046280360205</v>
       </c>
       <c r="F12">
-        <v>0.826137886513294</v>
+        <v>0.9672208598847476</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2622969971709921</v>
+        <v>0.509383380180779</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.104324859715156</v>
+        <v>0.5650722525346197</v>
       </c>
       <c r="O12">
-        <v>2.751170867853546</v>
+        <v>2.706733208676042</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.730297826171238</v>
+        <v>4.647508418816585</v>
       </c>
       <c r="C13">
-        <v>0.2671543598127073</v>
+        <v>0.5040962279306029</v>
       </c>
       <c r="D13">
-        <v>0.0282607351990336</v>
+        <v>0.04896018815398406</v>
       </c>
       <c r="E13">
-        <v>0.09698345192269286</v>
+        <v>0.05079479512404639</v>
       </c>
       <c r="F13">
-        <v>0.8253819887171119</v>
+        <v>0.9626070797424831</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2616149181192924</v>
+        <v>0.5066250397591716</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.104876724474579</v>
+        <v>0.5662457100541971</v>
       </c>
       <c r="O13">
-        <v>2.749648983206214</v>
+        <v>2.69480773355707</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.706737867512345</v>
+        <v>4.564271625294793</v>
       </c>
       <c r="C14">
-        <v>0.2649884669413041</v>
+        <v>0.4974235862016485</v>
       </c>
       <c r="D14">
-        <v>0.0280440392693535</v>
+        <v>0.0483220703370506</v>
       </c>
       <c r="E14">
-        <v>0.09703995826488843</v>
+        <v>0.05045380925808907</v>
       </c>
       <c r="F14">
-        <v>0.8229313754082597</v>
+        <v>0.9476246797002545</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2593932717276175</v>
+        <v>0.4976455873372458</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.10668899884606</v>
+        <v>0.5701109616387185</v>
       </c>
       <c r="O14">
-        <v>2.744734919531027</v>
+        <v>2.656122158867703</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.692310598760628</v>
+        <v>4.513343462262071</v>
       </c>
       <c r="C15">
-        <v>0.2636608063158405</v>
+        <v>0.4933375548158665</v>
       </c>
       <c r="D15">
-        <v>0.02791120826901761</v>
+        <v>0.04793122282855933</v>
       </c>
       <c r="E15">
-        <v>0.0970755862986401</v>
+        <v>0.05024769800848006</v>
       </c>
       <c r="F15">
-        <v>0.821441468037662</v>
+        <v>0.9384961274852799</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2580345723620923</v>
+        <v>0.4921575758585988</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.107808691947341</v>
+        <v>0.5725077573273012</v>
       </c>
       <c r="O15">
-        <v>2.741762653354385</v>
+        <v>2.63258226749474</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.609694388645153</v>
+        <v>4.222315934669268</v>
       </c>
       <c r="C16">
-        <v>0.2560374936823848</v>
+        <v>0.4699375943349366</v>
       </c>
       <c r="D16">
-        <v>0.0271485116659278</v>
+        <v>0.04569156278051878</v>
       </c>
       <c r="E16">
-        <v>0.09729533033498861</v>
+        <v>0.04910758052909436</v>
       </c>
       <c r="F16">
-        <v>0.8130743638329108</v>
+        <v>0.8869012857309855</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2502810038860446</v>
+        <v>0.4608861184068473</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.114372669914133</v>
+        <v>0.5866804299939758</v>
       </c>
       <c r="O16">
-        <v>2.725307628259515</v>
+        <v>2.499991106776832</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.559067288818142</v>
+        <v>4.044460989520815</v>
       </c>
       <c r="C17">
-        <v>0.2513475691720544</v>
+        <v>0.4555938757211493</v>
       </c>
       <c r="D17">
-        <v>0.02667930216745873</v>
+        <v>0.0443175637315889</v>
       </c>
       <c r="E17">
-        <v>0.09744403065693241</v>
+        <v>0.04844352751853442</v>
       </c>
       <c r="F17">
-        <v>0.8080937843583627</v>
+        <v>0.8558602085481226</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2455535692936337</v>
+        <v>0.4418522633772994</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.118531026435591</v>
+        <v>0.5957545750112629</v>
       </c>
       <c r="O17">
-        <v>2.715727941592206</v>
+        <v>2.420617145844489</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.529968693121248</v>
+        <v>3.942393915475975</v>
       </c>
       <c r="C18">
-        <v>0.248645227518864</v>
+        <v>0.4473470303087197</v>
       </c>
       <c r="D18">
-        <v>0.02640894616511957</v>
+        <v>0.04352720179274883</v>
       </c>
       <c r="E18">
-        <v>0.09753466427133795</v>
+        <v>0.04807410515019939</v>
       </c>
       <c r="F18">
-        <v>0.8052850114918186</v>
+        <v>0.8382193532191451</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2428451981714517</v>
+        <v>0.4309563074359772</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.120971146377784</v>
+        <v>0.6011091412940246</v>
       </c>
       <c r="O18">
-        <v>2.710406931092308</v>
+        <v>2.375650720262428</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.520120020252477</v>
+        <v>3.907873497317098</v>
       </c>
       <c r="C19">
-        <v>0.2477294382818229</v>
+        <v>0.4445552708395724</v>
       </c>
       <c r="D19">
-        <v>0.02631732654386809</v>
+        <v>0.04325958069055957</v>
       </c>
       <c r="E19">
-        <v>0.09756622796606251</v>
+        <v>0.04795113203300261</v>
       </c>
       <c r="F19">
-        <v>0.8043436077378345</v>
+        <v>0.8322820323367779</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2419300339969652</v>
+        <v>0.427275712269136</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.121805631386472</v>
+        <v>0.6029449684912223</v>
       </c>
       <c r="O19">
-        <v>2.708637759218277</v>
+        <v>2.360540668022509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.564454490507444</v>
+        <v>4.063369669517328</v>
       </c>
       <c r="C20">
-        <v>0.2518473198586264</v>
+        <v>0.4571204294412894</v>
       </c>
       <c r="D20">
-        <v>0.02672930003939911</v>
+        <v>0.04446383463722015</v>
       </c>
       <c r="E20">
-        <v>0.09742767286917875</v>
+        <v>0.04851291045502215</v>
       </c>
       <c r="F20">
-        <v>0.8086181859662105</v>
+        <v>0.8591422749523048</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2460557033023605</v>
+        <v>0.4438730127328796</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.118083358771003</v>
+        <v>0.5947745156060051</v>
       </c>
       <c r="O20">
-        <v>2.716728151697907</v>
+        <v>2.428994719914272</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.713657191149082</v>
+        <v>4.588708337509502</v>
       </c>
       <c r="C21">
-        <v>0.2656248485309618</v>
+        <v>0.4993832567348306</v>
       </c>
       <c r="D21">
-        <v>0.02810770867469614</v>
+        <v>0.04850949687799044</v>
       </c>
       <c r="E21">
-        <v>0.09702314918731503</v>
+        <v>0.05055338863334136</v>
       </c>
       <c r="F21">
-        <v>0.8236488529773851</v>
+        <v>0.9520151779875334</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2600453807628185</v>
+        <v>0.5002805153229417</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.106154684515104</v>
+        <v>0.5689695297906283</v>
       </c>
       <c r="O21">
-        <v>2.746170432752024</v>
+        <v>2.667452299061864</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.811344960305803</v>
+        <v>4.93453429163975</v>
       </c>
       <c r="C22">
-        <v>0.2745851564138206</v>
+        <v>0.5270536344735888</v>
       </c>
       <c r="D22">
-        <v>0.02900418625663548</v>
+        <v>0.05115421739854753</v>
       </c>
       <c r="E22">
-        <v>0.09680425247719526</v>
+        <v>0.05200885255591103</v>
       </c>
       <c r="F22">
-        <v>0.8339717507095514</v>
+        <v>1.014857410684016</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2692835256879391</v>
+        <v>0.5376812158444579</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.098789274595937</v>
+        <v>0.5534007942752908</v>
       </c>
       <c r="O22">
-        <v>2.767101089965735</v>
+        <v>2.830190132847463</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.759191604286855</v>
+        <v>4.749710784505453</v>
       </c>
       <c r="C23">
-        <v>0.2698069635567606</v>
+        <v>0.5122799100022917</v>
       </c>
       <c r="D23">
-        <v>0.0285261272538051</v>
+        <v>0.04974255401574368</v>
       </c>
       <c r="E23">
-        <v>0.09691691899231536</v>
+        <v>0.05122036601448698</v>
       </c>
       <c r="F23">
-        <v>0.8284164510124015</v>
+        <v>0.9811086106169569</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2643442739981481</v>
+        <v>0.5176670478222434</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.102680916745427</v>
+        <v>0.5615869025858871</v>
       </c>
       <c r="O23">
-        <v>2.755775239953834</v>
+        <v>2.74266411356453</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.562018912846838</v>
+        <v>4.054820486534595</v>
       </c>
       <c r="C24">
-        <v>0.2516214013805609</v>
+        <v>0.4564302761212389</v>
       </c>
       <c r="D24">
-        <v>0.02670669787237756</v>
+        <v>0.04439770691908507</v>
       </c>
       <c r="E24">
-        <v>0.09743505220290416</v>
+        <v>0.04848150407230456</v>
       </c>
       <c r="F24">
-        <v>0.8083809338497474</v>
+        <v>0.8576578166292848</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2458286589419743</v>
+        <v>0.4429592867827381</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.118285595362629</v>
+        <v>0.5952171724804387</v>
       </c>
       <c r="O24">
-        <v>2.716275375893474</v>
+        <v>2.425205150298837</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.350135486690192</v>
+        <v>3.31386308878308</v>
       </c>
       <c r="C25">
-        <v>0.2318216392682757</v>
+        <v>0.3963033473885957</v>
       </c>
       <c r="D25">
-        <v>0.02472589985637086</v>
+        <v>0.03862897080013283</v>
       </c>
       <c r="E25">
-        <v>0.09818910709614137</v>
+        <v>0.04600080470203061</v>
       </c>
       <c r="F25">
-        <v>0.7889064867293314</v>
+        <v>0.732523751538352</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2262667429533423</v>
+        <v>0.3643194180339009</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.136965999057317</v>
+        <v>0.63662287073128</v>
       </c>
       <c r="O25">
-        <v>2.68088948608613</v>
+        <v>2.108674583986812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.773482813655164</v>
+        <v>0.7824072239673399</v>
       </c>
       <c r="C2">
-        <v>0.3520282134290653</v>
+        <v>0.1440945276792718</v>
       </c>
       <c r="D2">
-        <v>0.03437144978166629</v>
+        <v>0.1537150359356332</v>
       </c>
       <c r="E2">
-        <v>0.04453069292169687</v>
+        <v>0.1113460952838565</v>
       </c>
       <c r="F2">
-        <v>0.6460835615063232</v>
+        <v>0.788938712674117</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.00317779248483363</v>
+      </c>
+      <c r="I2">
+        <v>0.002148934105477895</v>
+      </c>
+      <c r="J2">
         <v>0.02672462365074526</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3678768399397541</v>
       </c>
       <c r="L2">
-        <v>0.3077215684796215</v>
+        <v>0.1158753452508137</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.87356884079054</v>
       </c>
       <c r="N2">
-        <v>0.6710878221973502</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.894124826615126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3247326746117949</v>
+      </c>
+      <c r="P2">
+        <v>0.9446190765076947</v>
+      </c>
+      <c r="Q2">
+        <v>1.834344650778718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.409507393498927</v>
+        <v>0.6810848590939713</v>
       </c>
       <c r="C3">
-        <v>0.3219747536094673</v>
+        <v>0.1260102903022755</v>
       </c>
       <c r="D3">
-        <v>0.03147677953360883</v>
+        <v>0.1369445969516079</v>
       </c>
       <c r="E3">
-        <v>0.04373351138446857</v>
+        <v>0.1008608034640481</v>
       </c>
       <c r="F3">
-        <v>0.5905085044191907</v>
+        <v>0.7593276032458149</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.004741390167586679</v>
+      </c>
+      <c r="I3">
+        <v>0.003140874460895393</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3669802783200353</v>
       </c>
       <c r="L3">
-        <v>0.2700124778260431</v>
+        <v>0.1063270762070587</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7607053112739379</v>
       </c>
       <c r="N3">
-        <v>0.6967298236703385</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.75856834644199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.284283404972399</v>
+      </c>
+      <c r="P3">
+        <v>0.9740965083912574</v>
+      </c>
+      <c r="Q3">
+        <v>1.795121806960239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.186837667900022</v>
+        <v>0.6185388706628601</v>
       </c>
       <c r="C4">
-        <v>0.303485116339175</v>
+        <v>0.1150539203821097</v>
       </c>
       <c r="D4">
-        <v>0.02969398328738038</v>
+        <v>0.1266948827071275</v>
       </c>
       <c r="E4">
-        <v>0.04333515247187236</v>
+        <v>0.09442013065520882</v>
       </c>
       <c r="F4">
-        <v>0.5577019622530415</v>
+        <v>0.741588725503064</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.005901252447238547</v>
+      </c>
+      <c r="I4">
+        <v>0.003923850793704275</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3666183121486313</v>
       </c>
       <c r="L4">
-        <v>0.2471284403529381</v>
+        <v>0.1004290768239642</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6913337692640908</v>
       </c>
       <c r="N4">
-        <v>0.7135409887608191</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.679675944906023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.259452955277883</v>
+      </c>
+      <c r="P4">
+        <v>0.9927688136704007</v>
+      </c>
+      <c r="Q4">
+        <v>1.772281335915409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.096262803898071</v>
+        <v>0.5923348731689657</v>
       </c>
       <c r="C5">
-        <v>0.2959395441588271</v>
+        <v>0.1109593316715944</v>
       </c>
       <c r="D5">
-        <v>0.02896600230672775</v>
+        <v>0.1226107450356722</v>
       </c>
       <c r="E5">
-        <v>0.04319473385803718</v>
+        <v>0.09180791934647914</v>
       </c>
       <c r="F5">
-        <v>0.5446410868776823</v>
+        <v>0.7340189064111087</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.006424473361168137</v>
+      </c>
+      <c r="I5">
+        <v>0.004361740359969613</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3662006433310196</v>
       </c>
       <c r="L5">
-        <v>0.237863938114927</v>
+        <v>0.09799735435890966</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6630102901288666</v>
       </c>
       <c r="N5">
-        <v>0.7206514573437062</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.648546098272078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2493503504931489</v>
+      </c>
+      <c r="P5">
+        <v>1.000422326861383</v>
+      </c>
+      <c r="Q5">
+        <v>1.761995023742784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.081231764822803</v>
+        <v>0.5872061523228922</v>
       </c>
       <c r="C6">
-        <v>0.2946859033317537</v>
+        <v>0.1106938589704356</v>
       </c>
       <c r="D6">
-        <v>0.0288450295292968</v>
+        <v>0.1220334572862782</v>
       </c>
       <c r="E6">
-        <v>0.04317271293508007</v>
+        <v>0.09139095629479144</v>
       </c>
       <c r="F6">
-        <v>0.5424902932957281</v>
+        <v>0.732220605225919</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.00651690473520683</v>
+      </c>
+      <c r="I6">
+        <v>0.004538049540714795</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3657477281790307</v>
       </c>
       <c r="L6">
-        <v>0.2363290618111051</v>
+        <v>0.0975701723792568</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6582673778417245</v>
       </c>
       <c r="N6">
-        <v>0.7218475960721733</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.643436555092904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2476927798642024</v>
+      </c>
+      <c r="P6">
+        <v>1.001585010272045</v>
+      </c>
+      <c r="Q6">
+        <v>1.758740415594872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.18561552657593</v>
+        <v>0.6160687774152223</v>
       </c>
       <c r="C7">
-        <v>0.3033834003394276</v>
+        <v>0.1161265369495084</v>
       </c>
       <c r="D7">
-        <v>0.0296841715935301</v>
+        <v>0.1269140145188032</v>
       </c>
       <c r="E7">
-        <v>0.04333317128068792</v>
+        <v>0.09443126461072282</v>
       </c>
       <c r="F7">
-        <v>0.5575246009957127</v>
+        <v>0.7399914010859305</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.005914923209002387</v>
+      </c>
+      <c r="I7">
+        <v>0.004189815677024811</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3655586006256293</v>
       </c>
       <c r="L7">
-        <v>0.2470032581004631</v>
+        <v>0.1003342195617307</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6908463342874711</v>
       </c>
       <c r="N7">
-        <v>0.7136358420521773</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.679252081362336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2593713887583817</v>
+      </c>
+      <c r="P7">
+        <v>0.992565491813262</v>
+      </c>
+      <c r="Q7">
+        <v>1.767872504641005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.647790799420534</v>
+        <v>0.7447099438806504</v>
       </c>
       <c r="C8">
-        <v>0.3416723423345616</v>
+        <v>0.1393303981767104</v>
       </c>
       <c r="D8">
-        <v>0.03337443318577726</v>
+        <v>0.1482872206005368</v>
       </c>
       <c r="E8">
-        <v>0.04423629932750295</v>
+        <v>0.107793176711791</v>
       </c>
       <c r="F8">
-        <v>0.6266337123028123</v>
+        <v>0.7766611424018777</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.003681028967915778</v>
+      </c>
+      <c r="I8">
+        <v>0.002766331664376231</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3661410669071543</v>
       </c>
       <c r="L8">
-        <v>0.2946592943784907</v>
+        <v>0.1125084777946199</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8345222731183526</v>
       </c>
       <c r="N8">
-        <v>0.6797025016234528</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.846439741830039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3108556904539554</v>
+      </c>
+      <c r="P8">
+        <v>0.954313860589016</v>
+      </c>
+      <c r="Q8">
+        <v>1.81492834567635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.562511118721602</v>
+        <v>0.9982222465213511</v>
       </c>
       <c r="C9">
-        <v>0.4165513406688888</v>
+        <v>0.184103324640617</v>
       </c>
       <c r="D9">
-        <v>0.04057329804179233</v>
+        <v>0.1901325601115929</v>
       </c>
       <c r="E9">
-        <v>0.04677781972104356</v>
+        <v>0.1339239157518364</v>
       </c>
       <c r="F9">
-        <v>0.7737138561437433</v>
+        <v>0.8549682185692262</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.0009648764172593971</v>
+      </c>
+      <c r="I9">
+        <v>0.001037095587045123</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3707149671398824</v>
       </c>
       <c r="L9">
-        <v>0.3905834355296491</v>
+        <v>0.1362460940075039</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.11611094665173</v>
       </c>
       <c r="N9">
-        <v>0.6220296990007768</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.212183975043303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4118507217683245</v>
+      </c>
+      <c r="P9">
+        <v>0.8844405163875124</v>
+      </c>
+      <c r="Q9">
+        <v>1.925218583466261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.242643060921694</v>
+        <v>1.180147791147874</v>
       </c>
       <c r="C10">
-        <v>0.471574821865488</v>
+        <v>0.2170722258387059</v>
       </c>
       <c r="D10">
-        <v>0.04584833982573855</v>
+        <v>0.2163021284282678</v>
       </c>
       <c r="E10">
-        <v>0.04918508461930493</v>
+        <v>0.1470003131469575</v>
       </c>
       <c r="F10">
-        <v>0.8904729778065104</v>
+        <v>0.9030203426421366</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0003309523393184577</v>
+      </c>
+      <c r="I10">
+        <v>0.0008951277189357398</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3714292841631632</v>
       </c>
       <c r="L10">
-        <v>0.4630652759410623</v>
+        <v>0.1459236636063679</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.319353812623604</v>
       </c>
       <c r="N10">
-        <v>0.5856636467682819</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.509143892963095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4766500815210719</v>
+      </c>
+      <c r="P10">
+        <v>0.8357588906945557</v>
+      </c>
+      <c r="Q10">
+        <v>1.991048819038809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.554529275439165</v>
+        <v>1.243419523654495</v>
       </c>
       <c r="C11">
-        <v>0.4966421453768533</v>
+        <v>0.22113382248466</v>
       </c>
       <c r="D11">
-        <v>0.04824732738319426</v>
+        <v>0.186494584327491</v>
       </c>
       <c r="E11">
-        <v>0.05041423220143137</v>
+        <v>0.1048119982716926</v>
       </c>
       <c r="F11">
-        <v>0.9458761617885187</v>
+        <v>0.8267758038964672</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01892344617893116</v>
+      </c>
+      <c r="I11">
+        <v>0.001438576071045361</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.343530724071762</v>
       </c>
       <c r="L11">
-        <v>0.4965953971617409</v>
+        <v>0.09535755373572741</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.379044651074139</v>
       </c>
       <c r="N11">
-        <v>0.5705675779415174</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.651611422997206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4248283584603598</v>
+      </c>
+      <c r="P11">
+        <v>0.8151935519619169</v>
+      </c>
+      <c r="Q11">
+        <v>1.843264582511893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.673054787976639</v>
+        <v>1.261644752342789</v>
       </c>
       <c r="C12">
-        <v>0.5061427695665373</v>
+        <v>0.2156485747716346</v>
       </c>
       <c r="D12">
-        <v>0.04915586543455674</v>
+        <v>0.157519288893198</v>
       </c>
       <c r="E12">
-        <v>0.05090046280360205</v>
+        <v>0.07396889230698989</v>
       </c>
       <c r="F12">
-        <v>0.9672208598847476</v>
+        <v>0.7567703628421043</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05766774998287616</v>
+      </c>
+      <c r="I12">
+        <v>0.001444671057237557</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.32208562282554</v>
       </c>
       <c r="L12">
-        <v>0.509383380180779</v>
+        <v>0.06610825030668721</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.386011698611668</v>
       </c>
       <c r="N12">
-        <v>0.5650722525346197</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.706733208676042</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.370302325989023</v>
+      </c>
+      <c r="P12">
+        <v>0.8125086363054272</v>
+      </c>
+      <c r="Q12">
+        <v>1.713872529039207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.647508418816585</v>
+        <v>1.242719499974186</v>
       </c>
       <c r="C13">
-        <v>0.5040962279306029</v>
+        <v>0.2043231866404795</v>
       </c>
       <c r="D13">
-        <v>0.04896018815398406</v>
+        <v>0.1280974159583224</v>
       </c>
       <c r="E13">
-        <v>0.05079479512404639</v>
+        <v>0.05019820567966526</v>
       </c>
       <c r="F13">
-        <v>0.9626070797424831</v>
+        <v>0.6852326381311826</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1135498173581624</v>
+      </c>
+      <c r="I13">
+        <v>0.001386791297212753</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3026560873524105</v>
       </c>
       <c r="L13">
-        <v>0.5066250397591716</v>
+        <v>0.05133568972166502</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.352546800809932</v>
       </c>
       <c r="N13">
-        <v>0.5662457100541971</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.69480773355707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3109975062342514</v>
+      </c>
+      <c r="P13">
+        <v>0.8223216558732886</v>
+      </c>
+      <c r="Q13">
+        <v>1.584259852436162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.564271625294793</v>
+        <v>1.212037385351522</v>
       </c>
       <c r="C14">
-        <v>0.4974235862016485</v>
+        <v>0.1941546446557965</v>
       </c>
       <c r="D14">
-        <v>0.0483220703370506</v>
+        <v>0.1078420232866364</v>
       </c>
       <c r="E14">
-        <v>0.05045380925808907</v>
+        <v>0.03788402742274677</v>
       </c>
       <c r="F14">
-        <v>0.9476246797002545</v>
+        <v>0.6348236212567073</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1630267913659651</v>
+      </c>
+      <c r="I14">
+        <v>0.001412847852551025</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2898955510077883</v>
       </c>
       <c r="L14">
-        <v>0.4976455873372458</v>
+        <v>0.04956287518965752</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.310900303282693</v>
       </c>
       <c r="N14">
-        <v>0.5701109616387185</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.656122158867703</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2681532097729793</v>
+      </c>
+      <c r="P14">
+        <v>0.8351929060134715</v>
+      </c>
+      <c r="Q14">
+        <v>1.493484483891933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.513343462262071</v>
+        <v>1.195817121460578</v>
       </c>
       <c r="C15">
-        <v>0.4933375548158665</v>
+        <v>0.1908903412743967</v>
       </c>
       <c r="D15">
-        <v>0.04793122282855933</v>
+        <v>0.1026562391170742</v>
       </c>
       <c r="E15">
-        <v>0.05024769800848006</v>
+        <v>0.03543061747317378</v>
       </c>
       <c r="F15">
-        <v>0.9384961274852799</v>
+        <v>0.6215796534850639</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1755971025265097</v>
+      </c>
+      <c r="I15">
+        <v>0.001529488670262147</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2868430159715665</v>
       </c>
       <c r="L15">
-        <v>0.4921575758585988</v>
+        <v>0.05019642896672316</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.292227109718965</v>
       </c>
       <c r="N15">
-        <v>0.5725077573273012</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.63258226749474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2564373981759438</v>
+      </c>
+      <c r="P15">
+        <v>0.8405138032780357</v>
+      </c>
+      <c r="Q15">
+        <v>1.469805713466855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.222315934669268</v>
+        <v>1.120319811486183</v>
       </c>
       <c r="C16">
-        <v>0.4699375943349366</v>
+        <v>0.1798622124530738</v>
       </c>
       <c r="D16">
-        <v>0.04569156278051878</v>
+        <v>0.09830665792765103</v>
       </c>
       <c r="E16">
-        <v>0.04910758052909436</v>
+        <v>0.03529973297634381</v>
       </c>
       <c r="F16">
-        <v>0.8869012857309855</v>
+        <v>0.6154086992937664</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1631843194949028</v>
+      </c>
+      <c r="I16">
+        <v>0.00168724228268502</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2898133009983006</v>
       </c>
       <c r="L16">
-        <v>0.4608861184068473</v>
+        <v>0.04936363638151242</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.212047282499697</v>
       </c>
       <c r="N16">
-        <v>0.5866804299939758</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.499991106776832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.24237518422375</v>
+      </c>
+      <c r="P16">
+        <v>0.8571425379769799</v>
+      </c>
+      <c r="Q16">
+        <v>1.46577465963999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.044460989520815</v>
+        <v>1.078694935674463</v>
       </c>
       <c r="C17">
-        <v>0.4555938757211493</v>
+        <v>0.1768482207297808</v>
       </c>
       <c r="D17">
-        <v>0.0443175637315889</v>
+        <v>0.1054179568854323</v>
       </c>
       <c r="E17">
-        <v>0.04844352751853442</v>
+        <v>0.04096032998920762</v>
       </c>
       <c r="F17">
-        <v>0.8558602085481226</v>
+        <v>0.6370983944187216</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1255918472059534</v>
+      </c>
+      <c r="I17">
+        <v>0.001832617499107236</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2988019326899938</v>
       </c>
       <c r="L17">
-        <v>0.4418522633772994</v>
+        <v>0.04825259910280533</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.172723393715529</v>
       </c>
       <c r="N17">
-        <v>0.5957545750112629</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.420617145844489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2537759367000092</v>
+      </c>
+      <c r="P17">
+        <v>0.8631688281080159</v>
+      </c>
+      <c r="Q17">
+        <v>1.510532315334501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.942393915475975</v>
+        <v>1.063159926946781</v>
       </c>
       <c r="C18">
-        <v>0.4473470303087197</v>
+        <v>0.1794420252812472</v>
       </c>
       <c r="D18">
-        <v>0.04352720179274883</v>
+        <v>0.1242153024760881</v>
       </c>
       <c r="E18">
-        <v>0.04807410515019939</v>
+        <v>0.05603337856823742</v>
       </c>
       <c r="F18">
-        <v>0.8382193532191451</v>
+        <v>0.6875980963222759</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07276235137998555</v>
+      </c>
+      <c r="I18">
+        <v>0.001644147559384912</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3150709414768791</v>
       </c>
       <c r="L18">
-        <v>0.4309563074359772</v>
+        <v>0.05429393781362535</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.163860670513884</v>
       </c>
       <c r="N18">
-        <v>0.6011091412940246</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.375650720262428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2900969795475277</v>
+      </c>
+      <c r="P18">
+        <v>0.8624138220431483</v>
+      </c>
+      <c r="Q18">
+        <v>1.607064014914343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.907873497317098</v>
+        <v>1.06552237271174</v>
       </c>
       <c r="C19">
-        <v>0.4445552708395724</v>
+        <v>0.188522349582982</v>
       </c>
       <c r="D19">
-        <v>0.04325958069055957</v>
+        <v>0.1534007510547042</v>
       </c>
       <c r="E19">
-        <v>0.04795113203300261</v>
+        <v>0.08339582253232081</v>
       </c>
       <c r="F19">
-        <v>0.8322820323367779</v>
+        <v>0.757819143311977</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02727612486521025</v>
+      </c>
+      <c r="I19">
+        <v>0.00173512408714771</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3351299517381534</v>
       </c>
       <c r="L19">
-        <v>0.427275712269136</v>
+        <v>0.07681480467115165</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.179782143054638</v>
       </c>
       <c r="N19">
-        <v>0.6029449684912223</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.360540668022509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3468963880315883</v>
+      </c>
+      <c r="P19">
+        <v>0.859462334956163</v>
+      </c>
+      <c r="Q19">
+        <v>1.735160667899947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.063369669517328</v>
+        <v>1.125609286782037</v>
       </c>
       <c r="C20">
-        <v>0.4571204294412894</v>
+        <v>0.2119000049976165</v>
       </c>
       <c r="D20">
-        <v>0.04446383463722015</v>
+        <v>0.2100663714010693</v>
       </c>
       <c r="E20">
-        <v>0.04851291045502215</v>
+        <v>0.1434505913795867</v>
       </c>
       <c r="F20">
-        <v>0.8591422749523048</v>
+        <v>0.8851491259134221</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0004101146304065217</v>
+      </c>
+      <c r="I20">
+        <v>0.001653465530503162</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3678351229142649</v>
       </c>
       <c r="L20">
-        <v>0.4438730127328796</v>
+        <v>0.1428751325839599</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.265461624052307</v>
       </c>
       <c r="N20">
-        <v>0.5947745156060051</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.428994719914272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4593958718434692</v>
+      </c>
+      <c r="P20">
+        <v>0.8477982361315686</v>
+      </c>
+      <c r="Q20">
+        <v>1.959329963840958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.588708337509502</v>
+        <v>1.268926316794733</v>
       </c>
       <c r="C21">
-        <v>0.4993832567348306</v>
+        <v>0.2391271689947132</v>
       </c>
       <c r="D21">
-        <v>0.04850949687799044</v>
+        <v>0.2378977627661811</v>
       </c>
       <c r="E21">
-        <v>0.05055338863334136</v>
+        <v>0.1630821416001993</v>
       </c>
       <c r="F21">
-        <v>0.9520151779875334</v>
+        <v>0.9414717331578117</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>6.245399699622567E-07</v>
+      </c>
+      <c r="I21">
+        <v>0.001714234659992542</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3743576512705076</v>
       </c>
       <c r="L21">
-        <v>0.5002805153229417</v>
+        <v>0.1621337898668855</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.427344011264211</v>
       </c>
       <c r="N21">
-        <v>0.5689695297906283</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.667452299061864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5240819939781431</v>
+      </c>
+      <c r="P21">
+        <v>0.8121836512499803</v>
+      </c>
+      <c r="Q21">
+        <v>2.046544293543917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.93453429163975</v>
+        <v>1.364299716649043</v>
       </c>
       <c r="C22">
-        <v>0.5270536344735888</v>
+        <v>0.2548902112845326</v>
       </c>
       <c r="D22">
-        <v>0.05115421739854753</v>
+        <v>0.2532371883319513</v>
       </c>
       <c r="E22">
-        <v>0.05200885255591103</v>
+        <v>0.1727145922784459</v>
       </c>
       <c r="F22">
-        <v>1.014857410684016</v>
+        <v>0.9750125024165186</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>8.104488454163672E-05</v>
+      </c>
+      <c r="I22">
+        <v>0.001659822506572262</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.378555241990103</v>
       </c>
       <c r="L22">
-        <v>0.5376812158444579</v>
+        <v>0.1709071145718823</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.531553564189466</v>
       </c>
       <c r="N22">
-        <v>0.5534007942752908</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.830190132847463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.561470483873002</v>
+      </c>
+      <c r="P22">
+        <v>0.7895371805379163</v>
+      </c>
+      <c r="Q22">
+        <v>2.100246822834777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.749710784505453</v>
+        <v>1.31600069463903</v>
       </c>
       <c r="C23">
-        <v>0.5122799100022917</v>
+        <v>0.245075301374186</v>
       </c>
       <c r="D23">
-        <v>0.04974255401574368</v>
+        <v>0.2447107249509628</v>
       </c>
       <c r="E23">
-        <v>0.05122036601448698</v>
+        <v>0.1675130920073755</v>
       </c>
       <c r="F23">
-        <v>0.9811086106169569</v>
+        <v>0.958798397703859</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>1.47280844926545E-05</v>
+      </c>
+      <c r="I23">
+        <v>0.001368350716632882</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3775025834004566</v>
       </c>
       <c r="L23">
-        <v>0.5176670478222434</v>
+        <v>0.1662958597086117</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.476060006665165</v>
       </c>
       <c r="N23">
-        <v>0.5615869025858871</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.74266411356453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5414440079193668</v>
+      </c>
+      <c r="P23">
+        <v>0.8017295187987594</v>
+      </c>
+      <c r="Q23">
+        <v>2.076380819218514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.054820486534595</v>
+        <v>1.128616544496793</v>
       </c>
       <c r="C24">
-        <v>0.4564302761212389</v>
+        <v>0.2105341372602254</v>
       </c>
       <c r="D24">
-        <v>0.04439770691908507</v>
+        <v>0.2131043983642655</v>
       </c>
       <c r="E24">
-        <v>0.04848150407230456</v>
+        <v>0.1479577256059699</v>
       </c>
       <c r="F24">
-        <v>0.8576578166292848</v>
+        <v>0.8958800748797202</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.0002637752269416538</v>
+      </c>
+      <c r="I24">
+        <v>0.00115877573308687</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3721012521861944</v>
       </c>
       <c r="L24">
-        <v>0.4429592867827381</v>
+        <v>0.1487190630269382</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.265956759581343</v>
       </c>
       <c r="N24">
-        <v>0.5952171724804387</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.425205150298837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4658644573507331</v>
+      </c>
+      <c r="P24">
+        <v>0.8489381188385634</v>
+      </c>
+      <c r="Q24">
+        <v>1.98155460180763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.31386308878308</v>
+        <v>0.9259990333979147</v>
       </c>
       <c r="C25">
-        <v>0.3963033473885957</v>
+        <v>0.173912038662877</v>
       </c>
       <c r="D25">
-        <v>0.03862897080013283</v>
+        <v>0.1792618979416574</v>
       </c>
       <c r="E25">
-        <v>0.04600080470203061</v>
+        <v>0.1269351210982634</v>
       </c>
       <c r="F25">
-        <v>0.732523751538352</v>
+        <v>0.8306660402978423</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.001513333157881824</v>
+      </c>
+      <c r="I25">
+        <v>0.001777141692615558</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3674246168245787</v>
       </c>
       <c r="L25">
-        <v>0.3643194180339009</v>
+        <v>0.1297352725488565</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.039733742259784</v>
       </c>
       <c r="N25">
-        <v>0.63662287073128</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.108674583986812</v>
+        <v>0.3845993396444669</v>
+      </c>
+      <c r="P25">
+        <v>0.9024435945397897</v>
+      </c>
+      <c r="Q25">
+        <v>1.886541938704767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7824072239673399</v>
+        <v>0.7487757119957053</v>
       </c>
       <c r="C2">
-        <v>0.1440945276792718</v>
+        <v>0.1604101868733778</v>
       </c>
       <c r="D2">
-        <v>0.1537150359356332</v>
+        <v>0.160774447873834</v>
       </c>
       <c r="E2">
-        <v>0.1113460952838565</v>
+        <v>0.1139705895560432</v>
       </c>
       <c r="F2">
-        <v>0.788938712674117</v>
+        <v>0.7496721522971797</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.00317779248483363</v>
+        <v>0.002733229177243612</v>
       </c>
       <c r="I2">
-        <v>0.002148934105477895</v>
+        <v>0.001464889081287168</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3678768399397541</v>
+        <v>0.3320986016696637</v>
       </c>
       <c r="L2">
-        <v>0.1158753452508137</v>
+        <v>0.1639736357426109</v>
       </c>
       <c r="M2">
-        <v>0.87356884079054</v>
+        <v>0.09142319536938714</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1165605918119468</v>
       </c>
       <c r="O2">
-        <v>0.3247326746117949</v>
+        <v>0.8747432914135231</v>
       </c>
       <c r="P2">
-        <v>0.9446190765076947</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.834344650778718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.326432800187952</v>
+      </c>
+      <c r="R2">
+        <v>0.9130296527189801</v>
+      </c>
+      <c r="S2">
+        <v>1.712053642948405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6810848590939713</v>
+        <v>0.6553333939497747</v>
       </c>
       <c r="C3">
-        <v>0.1260102903022755</v>
+        <v>0.1377575340006132</v>
       </c>
       <c r="D3">
-        <v>0.1369445969516079</v>
+        <v>0.1430668156553878</v>
       </c>
       <c r="E3">
-        <v>0.1008608034640481</v>
+        <v>0.1033850471092386</v>
       </c>
       <c r="F3">
-        <v>0.7593276032458149</v>
+        <v>0.7242472102933135</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.004741390167586679</v>
+        <v>0.004141023906498953</v>
       </c>
       <c r="I3">
-        <v>0.003140874460895393</v>
+        <v>0.002127951553052121</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3669802783200353</v>
+        <v>0.3333370435292089</v>
       </c>
       <c r="L3">
-        <v>0.1063270762070587</v>
+        <v>0.1683317132714564</v>
       </c>
       <c r="M3">
-        <v>0.7607053112739379</v>
+        <v>0.08945883745837513</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1073096961464941</v>
       </c>
       <c r="O3">
-        <v>0.284283404972399</v>
+        <v>0.7621534695064724</v>
       </c>
       <c r="P3">
-        <v>0.9740965083912574</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.795121806960239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.2857458394185457</v>
+      </c>
+      <c r="R3">
+        <v>0.940502362752774</v>
+      </c>
+      <c r="S3">
+        <v>1.683645251255882</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6185388706628601</v>
+        <v>0.5974777921266821</v>
       </c>
       <c r="C4">
-        <v>0.1150539203821097</v>
+        <v>0.1241041351542975</v>
       </c>
       <c r="D4">
-        <v>0.1266948827071275</v>
+        <v>0.1322606009385368</v>
       </c>
       <c r="E4">
-        <v>0.09442013065520882</v>
+        <v>0.09688645115328853</v>
       </c>
       <c r="F4">
-        <v>0.741588725503064</v>
+        <v>0.7089856328915332</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.005901252447238547</v>
+        <v>0.005191194676332112</v>
       </c>
       <c r="I4">
-        <v>0.003923850793704275</v>
+        <v>0.002683844055147322</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.3666183121486313</v>
+        <v>0.3342188054471968</v>
       </c>
       <c r="L4">
-        <v>0.1004290768239642</v>
+        <v>0.1710863280813406</v>
       </c>
       <c r="M4">
-        <v>0.6913337692640908</v>
+        <v>0.08877098773534087</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.101591687927133</v>
       </c>
       <c r="O4">
-        <v>0.259452955277883</v>
+        <v>0.6929180501454084</v>
       </c>
       <c r="P4">
-        <v>0.9927688136704007</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.772281335915409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2607673394890568</v>
+      </c>
+      <c r="R4">
+        <v>0.9579697510124197</v>
+      </c>
+      <c r="S4">
+        <v>1.667169285715417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5923348731689657</v>
+        <v>0.5731632231643857</v>
       </c>
       <c r="C5">
-        <v>0.1109593316715944</v>
+        <v>0.1189602864636754</v>
       </c>
       <c r="D5">
-        <v>0.1226107450356722</v>
+        <v>0.1279554929895568</v>
       </c>
       <c r="E5">
-        <v>0.09180791934647914</v>
+        <v>0.09425163899270217</v>
       </c>
       <c r="F5">
-        <v>0.7340189064111087</v>
+        <v>0.702414232550943</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006424473361168137</v>
+        <v>0.005666151043061229</v>
       </c>
       <c r="I5">
-        <v>0.004361740359969613</v>
+        <v>0.003034784825064918</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3662006433310196</v>
+        <v>0.3343116988872765</v>
       </c>
       <c r="L5">
-        <v>0.09799735435890966</v>
+        <v>0.1720764830285972</v>
       </c>
       <c r="M5">
-        <v>0.6630102901288666</v>
+        <v>0.08854923773911239</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09923283027565333</v>
       </c>
       <c r="O5">
-        <v>0.2493503504931489</v>
+        <v>0.664642654022785</v>
       </c>
       <c r="P5">
-        <v>1.000422326861383</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.761995023742784</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2506040360791424</v>
+      </c>
+      <c r="R5">
+        <v>0.965168836092305</v>
+      </c>
+      <c r="S5">
+        <v>1.659455594566595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5872061523228922</v>
+        <v>0.5683640102646166</v>
       </c>
       <c r="C6">
-        <v>0.1106938589704356</v>
+        <v>0.1185508026767224</v>
       </c>
       <c r="D6">
-        <v>0.1220334572862782</v>
+        <v>0.1273430834457514</v>
       </c>
       <c r="E6">
-        <v>0.09139095629479144</v>
+        <v>0.0938310418402537</v>
       </c>
       <c r="F6">
-        <v>0.732220605225919</v>
+        <v>0.7007949562879858</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.00651690473520683</v>
+        <v>0.005750153750422926</v>
       </c>
       <c r="I6">
-        <v>0.004538049540714795</v>
+        <v>0.003212083381276543</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3657477281790307</v>
+        <v>0.3339676957990925</v>
       </c>
       <c r="L6">
-        <v>0.0975701723792568</v>
+        <v>0.1720569753360088</v>
       </c>
       <c r="M6">
-        <v>0.6582673778417245</v>
+        <v>0.08843259395518643</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09881783611339046</v>
       </c>
       <c r="O6">
-        <v>0.2476927798642024</v>
+        <v>0.6599073221862284</v>
       </c>
       <c r="P6">
-        <v>1.001585010272045</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.758740415594872</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.248936371272336</v>
+      </c>
+      <c r="R6">
+        <v>0.96629353534159</v>
+      </c>
+      <c r="S6">
+        <v>1.656682182154455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6160687774152223</v>
+        <v>0.595084908842864</v>
       </c>
       <c r="C7">
-        <v>0.1161265369495084</v>
+        <v>0.1252446292745759</v>
       </c>
       <c r="D7">
-        <v>0.1269140145188032</v>
+        <v>0.1324804263309431</v>
       </c>
       <c r="E7">
-        <v>0.09443126461072282</v>
+        <v>0.09689746623951478</v>
       </c>
       <c r="F7">
-        <v>0.7399914010859305</v>
+        <v>0.7074437122705959</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.005914923209002387</v>
+        <v>0.005203669414266587</v>
       </c>
       <c r="I7">
-        <v>0.004189815677024811</v>
+        <v>0.002989378008413368</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3655586006256293</v>
+        <v>0.3332380734305715</v>
       </c>
       <c r="L7">
-        <v>0.1003342195617307</v>
+        <v>0.170609960899661</v>
       </c>
       <c r="M7">
-        <v>0.6908463342874711</v>
+        <v>0.08851554870896372</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1014981962927735</v>
       </c>
       <c r="O7">
-        <v>0.2593713887583817</v>
+        <v>0.6924314364277251</v>
       </c>
       <c r="P7">
-        <v>0.992565491813262</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.767872504641005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2606849671301106</v>
+      </c>
+      <c r="R7">
+        <v>0.9578666256866049</v>
+      </c>
+      <c r="S7">
+        <v>1.662961846650575</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7447099438806504</v>
+        <v>0.7139055602425799</v>
       </c>
       <c r="C8">
-        <v>0.1393303981767104</v>
+        <v>0.1541728636158979</v>
       </c>
       <c r="D8">
-        <v>0.1482872206005368</v>
+        <v>0.1550252268536383</v>
       </c>
       <c r="E8">
-        <v>0.107793176711791</v>
+        <v>0.1103827450517585</v>
       </c>
       <c r="F8">
-        <v>0.7766611424018777</v>
+        <v>0.7389208996889707</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.003681028967915778</v>
+        <v>0.003185116337347749</v>
       </c>
       <c r="I8">
-        <v>0.002766331664376231</v>
+        <v>0.002025589527831606</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3661410669071543</v>
+        <v>0.33122223628596</v>
       </c>
       <c r="L8">
-        <v>0.1125084777946199</v>
+        <v>0.1648784042480891</v>
       </c>
       <c r="M8">
-        <v>0.8345222731183526</v>
+        <v>0.09025450681882319</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1132975623617014</v>
       </c>
       <c r="O8">
-        <v>0.3108556904539554</v>
+        <v>0.8357986527214791</v>
       </c>
       <c r="P8">
-        <v>0.954313860589016</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.81492834567635</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3124744361435958</v>
+      </c>
+      <c r="R8">
+        <v>0.9221891628027592</v>
+      </c>
+      <c r="S8">
+        <v>1.696676200000184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9982222465213511</v>
+        <v>0.9468403811334554</v>
       </c>
       <c r="C9">
-        <v>0.184103324640617</v>
+        <v>0.2108825226040523</v>
       </c>
       <c r="D9">
-        <v>0.1901325601115929</v>
+        <v>0.1993102502527222</v>
       </c>
       <c r="E9">
-        <v>0.1339239157518364</v>
+        <v>0.136781664710135</v>
       </c>
       <c r="F9">
-        <v>0.8549682185692262</v>
+        <v>0.8061979990441728</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0009648764172593971</v>
+        <v>0.0007742504937908734</v>
       </c>
       <c r="I9">
-        <v>0.001037095587045123</v>
+        <v>0.0009194396212484079</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.3707149671398824</v>
+        <v>0.3300048709306331</v>
       </c>
       <c r="L9">
-        <v>0.1362460940075039</v>
+        <v>0.1550319806069353</v>
       </c>
       <c r="M9">
-        <v>1.11611094665173</v>
+        <v>0.09833564987441079</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1362748826503193</v>
       </c>
       <c r="O9">
-        <v>0.4118507217683245</v>
+        <v>1.116498350358995</v>
       </c>
       <c r="P9">
-        <v>0.8844405163875124</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.925218583466261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4140436125773732</v>
+      </c>
+      <c r="R9">
+        <v>0.8573479013225125</v>
+      </c>
+      <c r="S9">
+        <v>1.778207762759166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.180147791147874</v>
+        <v>1.113596543162402</v>
       </c>
       <c r="C10">
-        <v>0.2170722258387059</v>
+        <v>0.2527353505501964</v>
       </c>
       <c r="D10">
-        <v>0.2163021284282678</v>
+        <v>0.2271601638144318</v>
       </c>
       <c r="E10">
-        <v>0.1470003131469575</v>
+        <v>0.1499994578169606</v>
       </c>
       <c r="F10">
-        <v>0.9030203426421366</v>
+        <v>0.8465427376722872</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0003309523393184577</v>
+        <v>0.0002763414104811623</v>
       </c>
       <c r="I10">
-        <v>0.0008951277189357398</v>
+        <v>0.001107174411323797</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3714292841631632</v>
+        <v>0.326769157150963</v>
       </c>
       <c r="L10">
-        <v>0.1459236636063679</v>
+        <v>0.1471155411434424</v>
       </c>
       <c r="M10">
-        <v>1.319353812623604</v>
+        <v>0.1056009813526622</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1454400362794814</v>
       </c>
       <c r="O10">
-        <v>0.4766500815210719</v>
+        <v>1.318911871588909</v>
       </c>
       <c r="P10">
-        <v>0.8357588906945557</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.991048819038809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4791941027541924</v>
+      </c>
+      <c r="R10">
+        <v>0.8132320260906312</v>
+      </c>
+      <c r="S10">
+        <v>1.823894444212925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.243419523654495</v>
+        <v>1.176090944329275</v>
       </c>
       <c r="C11">
-        <v>0.22113382248466</v>
+        <v>0.2565019418569392</v>
       </c>
       <c r="D11">
-        <v>0.186494584327491</v>
+        <v>0.1963683431259398</v>
       </c>
       <c r="E11">
-        <v>0.1048119982716926</v>
+        <v>0.1072918684803881</v>
       </c>
       <c r="F11">
-        <v>0.8267758038964672</v>
+        <v>0.7742005290887874</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01892344617893116</v>
+        <v>0.0188668443731359</v>
       </c>
       <c r="I11">
-        <v>0.001438576071045361</v>
+        <v>0.001818114919284852</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.343530724071762</v>
+        <v>0.3023123214235568</v>
       </c>
       <c r="L11">
-        <v>0.09535755373572741</v>
+        <v>0.1357545188978762</v>
       </c>
       <c r="M11">
-        <v>1.379044651074139</v>
+        <v>0.09974876646971609</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09520259757914928</v>
       </c>
       <c r="O11">
-        <v>0.4248283584603598</v>
+        <v>1.378513232882028</v>
       </c>
       <c r="P11">
-        <v>0.8151935519619169</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.843264582511893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4271430730666452</v>
+      </c>
+      <c r="R11">
+        <v>0.8004815549951942</v>
+      </c>
+      <c r="S11">
+        <v>1.68701148554868</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.261644752342789</v>
+        <v>1.196952423492718</v>
       </c>
       <c r="C12">
-        <v>0.2156485747716346</v>
+        <v>0.2486390052858241</v>
       </c>
       <c r="D12">
-        <v>0.157519288893198</v>
+        <v>0.1662352455789318</v>
       </c>
       <c r="E12">
-        <v>0.07396889230698989</v>
+        <v>0.07600416163499446</v>
       </c>
       <c r="F12">
-        <v>0.7567703628421043</v>
+        <v>0.7089237104048252</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05766774998287616</v>
+        <v>0.05759897768748345</v>
       </c>
       <c r="I12">
-        <v>0.001444671057237557</v>
+        <v>0.001833999068375114</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.32208562282554</v>
+        <v>0.284368089418038</v>
       </c>
       <c r="L12">
-        <v>0.06610825030668721</v>
+        <v>0.128774999686728</v>
       </c>
       <c r="M12">
-        <v>1.386011698611668</v>
+        <v>0.09370354503703027</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06631362110387506</v>
       </c>
       <c r="O12">
-        <v>0.370302325989023</v>
+        <v>1.385598986796339</v>
       </c>
       <c r="P12">
-        <v>0.8125086363054272</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.713872529039207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3723605954357012</v>
+      </c>
+      <c r="R12">
+        <v>0.8027801450555145</v>
+      </c>
+      <c r="S12">
+        <v>1.570492953381546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.242719499974186</v>
+        <v>1.183578192934732</v>
       </c>
       <c r="C13">
-        <v>0.2043231866404795</v>
+        <v>0.2334198057081665</v>
       </c>
       <c r="D13">
-        <v>0.1280974159583224</v>
+        <v>0.1354946793017575</v>
       </c>
       <c r="E13">
-        <v>0.05019820567966526</v>
+        <v>0.05183055088810917</v>
       </c>
       <c r="F13">
-        <v>0.6852326381311826</v>
+        <v>0.6430047944447779</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1135498173581624</v>
+        <v>0.1134567693691366</v>
       </c>
       <c r="I13">
-        <v>0.001386791297212753</v>
+        <v>0.001741108350779896</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.3026560873524105</v>
+        <v>0.2687857193009506</v>
       </c>
       <c r="L13">
-        <v>0.05133568972166502</v>
+        <v>0.1238075063643524</v>
       </c>
       <c r="M13">
-        <v>1.352546800809932</v>
+        <v>0.08674190693961492</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.05192158321219953</v>
       </c>
       <c r="O13">
-        <v>0.3109975062342514</v>
+        <v>1.352425665491694</v>
       </c>
       <c r="P13">
-        <v>0.8223216558732886</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.584259852436162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3127625687758382</v>
+      </c>
+      <c r="R13">
+        <v>0.8157668107801186</v>
+      </c>
+      <c r="S13">
+        <v>1.456142501172167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.212037385351522</v>
+        <v>1.158092353632753</v>
       </c>
       <c r="C14">
-        <v>0.1941546446557965</v>
+        <v>0.2199205738804011</v>
       </c>
       <c r="D14">
-        <v>0.1078420232866364</v>
+        <v>0.1142733151950921</v>
       </c>
       <c r="E14">
-        <v>0.03788402742274677</v>
+        <v>0.03926337417546044</v>
       </c>
       <c r="F14">
-        <v>0.6348236212567073</v>
+        <v>0.5968366035259649</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1630267913659651</v>
+        <v>0.1629100641345929</v>
       </c>
       <c r="I14">
-        <v>0.001412847852551025</v>
+        <v>0.001734672255714997</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2898955510077883</v>
+        <v>0.2588300143680868</v>
       </c>
       <c r="L14">
-        <v>0.04956287518965752</v>
+        <v>0.121062579947063</v>
       </c>
       <c r="M14">
-        <v>1.310900303282693</v>
+        <v>0.08155199195915053</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05040791552055435</v>
       </c>
       <c r="O14">
-        <v>0.2681532097729793</v>
+        <v>1.311054727921118</v>
       </c>
       <c r="P14">
-        <v>0.8351929060134715</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.493484483891933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2696981246386905</v>
+      </c>
+      <c r="R14">
+        <v>0.8299471571666714</v>
+      </c>
+      <c r="S14">
+        <v>1.376921298843129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.195817121460578</v>
+        <v>1.143746927063717</v>
       </c>
       <c r="C15">
-        <v>0.1908903412743967</v>
+        <v>0.2155781423523138</v>
       </c>
       <c r="D15">
-        <v>0.1026562391170742</v>
+        <v>0.1088208481661752</v>
       </c>
       <c r="E15">
-        <v>0.03543061747317378</v>
+        <v>0.03675606212247029</v>
       </c>
       <c r="F15">
-        <v>0.6215796534850639</v>
+        <v>0.5848229486106291</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1755971025265097</v>
+        <v>0.1754693241147862</v>
       </c>
       <c r="I15">
-        <v>0.001529488670262147</v>
+        <v>0.001853668761632399</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.2868430159715665</v>
+        <v>0.2565612945403899</v>
       </c>
       <c r="L15">
-        <v>0.05019642896672316</v>
+        <v>0.1206220272830691</v>
       </c>
       <c r="M15">
-        <v>1.292227109718965</v>
+        <v>0.0800402405514955</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0511085980239887</v>
       </c>
       <c r="O15">
-        <v>0.2564373981759438</v>
+        <v>1.292482349273882</v>
       </c>
       <c r="P15">
-        <v>0.8405138032780357</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.469805713466855</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2579197131021722</v>
+      </c>
+      <c r="R15">
+        <v>0.8352764412517146</v>
+      </c>
+      <c r="S15">
+        <v>1.356608628078675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.120319811486183</v>
+        <v>1.073657931925993</v>
       </c>
       <c r="C16">
-        <v>0.1798622124530738</v>
+        <v>0.2017084035829697</v>
       </c>
       <c r="D16">
-        <v>0.09830665792765103</v>
+        <v>0.1041159705599028</v>
       </c>
       <c r="E16">
-        <v>0.03529973297634381</v>
+        <v>0.03667560410391602</v>
       </c>
       <c r="F16">
-        <v>0.6154086992937664</v>
+        <v>0.5804881636478214</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1631843194949028</v>
+        <v>0.1629978544873865</v>
       </c>
       <c r="I16">
-        <v>0.00168724228268502</v>
+        <v>0.001920093051629657</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2898133009983006</v>
+        <v>0.2602808594879207</v>
       </c>
       <c r="L16">
-        <v>0.04936363638151242</v>
+        <v>0.1236600119821674</v>
       </c>
       <c r="M16">
-        <v>1.212047282499697</v>
+        <v>0.07860991498196412</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05034497163917884</v>
       </c>
       <c r="O16">
-        <v>0.24237518422375</v>
+        <v>1.212611633358506</v>
       </c>
       <c r="P16">
-        <v>0.8571425379769799</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.46577465963999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.243768493269382</v>
+      </c>
+      <c r="R16">
+        <v>0.848896759898615</v>
+      </c>
+      <c r="S16">
+        <v>1.357416280753128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.078694935674463</v>
+        <v>1.033406889023922</v>
       </c>
       <c r="C17">
-        <v>0.1768482207297808</v>
+        <v>0.19826519930443</v>
       </c>
       <c r="D17">
-        <v>0.1054179568854323</v>
+        <v>0.1114425071003353</v>
       </c>
       <c r="E17">
-        <v>0.04096032998920762</v>
+        <v>0.04249992816276027</v>
       </c>
       <c r="F17">
-        <v>0.6370983944187216</v>
+        <v>0.6014286303400596</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1255918472059534</v>
+        <v>0.1253714782223341</v>
       </c>
       <c r="I17">
-        <v>0.001832617499107236</v>
+        <v>0.002012365081214718</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.2988019326899938</v>
+        <v>0.2684149079998193</v>
       </c>
       <c r="L17">
-        <v>0.04825259910280533</v>
+        <v>0.1276719270596995</v>
       </c>
       <c r="M17">
-        <v>1.172723393715529</v>
+        <v>0.08014197802895495</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04916797098115877</v>
       </c>
       <c r="O17">
-        <v>0.2537759367000092</v>
+        <v>1.173375168874543</v>
       </c>
       <c r="P17">
-        <v>0.8631688281080159</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.510532315334501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2552166737658403</v>
+      </c>
+      <c r="R17">
+        <v>0.8520725701363396</v>
+      </c>
+      <c r="S17">
+        <v>1.399966873202871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.063159926946781</v>
+        <v>1.01598223710144</v>
       </c>
       <c r="C18">
-        <v>0.1794420252812472</v>
+        <v>0.2023550759570725</v>
       </c>
       <c r="D18">
-        <v>0.1242153024760881</v>
+        <v>0.1309900929993404</v>
       </c>
       <c r="E18">
-        <v>0.05603337856823742</v>
+        <v>0.05786690769157943</v>
       </c>
       <c r="F18">
-        <v>0.6875980963222759</v>
+        <v>0.6487660973370026</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07276235137998555</v>
+        <v>0.07253814100734246</v>
       </c>
       <c r="I18">
-        <v>0.001644147559384912</v>
+        <v>0.001758263777343672</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.3150709414768791</v>
+        <v>0.2822390732710502</v>
       </c>
       <c r="L18">
-        <v>0.05429393781362535</v>
+        <v>0.1334409411143493</v>
       </c>
       <c r="M18">
-        <v>1.163860670513884</v>
+        <v>0.08453138425061368</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05500630532328898</v>
       </c>
       <c r="O18">
-        <v>0.2900969795475277</v>
+        <v>1.164433539142976</v>
       </c>
       <c r="P18">
-        <v>0.8624138220431483</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.607064014914343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2917155237510656</v>
+      </c>
+      <c r="R18">
+        <v>0.8479608405208197</v>
+      </c>
+      <c r="S18">
+        <v>1.487685521167052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.06552237271174</v>
+        <v>1.014141487685748</v>
       </c>
       <c r="C19">
-        <v>0.188522349582982</v>
+        <v>0.2146024543258562</v>
       </c>
       <c r="D19">
-        <v>0.1534007510547042</v>
+        <v>0.1613716507128657</v>
       </c>
       <c r="E19">
-        <v>0.08339582253232081</v>
+        <v>0.08563591549143368</v>
       </c>
       <c r="F19">
-        <v>0.757819143311977</v>
+        <v>0.7139921506018894</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02727612486521025</v>
+        <v>0.02708218548141872</v>
       </c>
       <c r="I19">
-        <v>0.00173512408714771</v>
+        <v>0.001891240373041114</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.3351299517381534</v>
+        <v>0.2987658341340058</v>
       </c>
       <c r="L19">
-        <v>0.07681480467115165</v>
+        <v>0.1398661863991588</v>
       </c>
       <c r="M19">
-        <v>1.179782143054638</v>
+        <v>0.0905271692626215</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07719684936437687</v>
       </c>
       <c r="O19">
-        <v>0.3468963880315883</v>
+        <v>1.180150904562709</v>
       </c>
       <c r="P19">
-        <v>0.859462334956163</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.735160667899947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.3487955759619226</v>
+      </c>
+      <c r="R19">
+        <v>0.8413262849585905</v>
+      </c>
+      <c r="S19">
+        <v>1.602150070789691</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.125609286782037</v>
+        <v>1.063360300835313</v>
       </c>
       <c r="C20">
-        <v>0.2119000049976165</v>
+        <v>0.2455359932368992</v>
       </c>
       <c r="D20">
-        <v>0.2100663714010693</v>
+        <v>0.2204868277271288</v>
       </c>
       <c r="E20">
-        <v>0.1434505913795867</v>
+        <v>0.1464107855757355</v>
       </c>
       <c r="F20">
-        <v>0.8851491259134221</v>
+        <v>0.8309452123172179</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0004101146304065217</v>
+        <v>0.0003241584016895338</v>
       </c>
       <c r="I20">
-        <v>0.001653465530503162</v>
+        <v>0.001942601029189639</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3678351229142649</v>
+        <v>0.3245773109800894</v>
       </c>
       <c r="L20">
-        <v>0.1428751325839599</v>
+        <v>0.1480564212480964</v>
       </c>
       <c r="M20">
-        <v>1.265461624052307</v>
+        <v>0.102369640627483</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1425318092725334</v>
       </c>
       <c r="O20">
-        <v>0.4593958718434692</v>
+        <v>1.265258626107794</v>
       </c>
       <c r="P20">
-        <v>0.8477982361315686</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.959329963840958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4618481660225768</v>
+      </c>
+      <c r="R20">
+        <v>0.8245562318850403</v>
+      </c>
+      <c r="S20">
+        <v>1.798387158191616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.268926316794733</v>
+        <v>1.193663062830069</v>
       </c>
       <c r="C21">
-        <v>0.2391271689947132</v>
+        <v>0.2805408736296329</v>
       </c>
       <c r="D21">
-        <v>0.2378977627661811</v>
+        <v>0.249951474504897</v>
       </c>
       <c r="E21">
-        <v>0.1630821416001993</v>
+        <v>0.1662608469514844</v>
       </c>
       <c r="F21">
-        <v>0.9414717331578117</v>
+        <v>0.8798393700995177</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6.245399699622567E-07</v>
+        <v>1.967938549451986E-06</v>
       </c>
       <c r="I21">
-        <v>0.001714234659992542</v>
+        <v>0.002182455829597529</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.3743576512705076</v>
+        <v>0.3269877888164459</v>
       </c>
       <c r="L21">
-        <v>0.1621337898668855</v>
+        <v>0.143885631337124</v>
       </c>
       <c r="M21">
-        <v>1.427344011264211</v>
+        <v>0.1105123494643863</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1612894597856069</v>
       </c>
       <c r="O21">
-        <v>0.5240819939781431</v>
+        <v>1.42636514807063</v>
       </c>
       <c r="P21">
-        <v>0.8121836512499803</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.046544293543917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5268622160281708</v>
+      </c>
+      <c r="R21">
+        <v>0.7914127186873881</v>
+      </c>
+      <c r="S21">
+        <v>1.865988268795491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.364299716649043</v>
+        <v>1.280614397762236</v>
       </c>
       <c r="C22">
-        <v>0.2548902112845326</v>
+        <v>0.3010732701601739</v>
       </c>
       <c r="D22">
-        <v>0.2532371883319513</v>
+        <v>0.2662633785998878</v>
       </c>
       <c r="E22">
-        <v>0.1727145922784459</v>
+        <v>0.1760018254641622</v>
       </c>
       <c r="F22">
-        <v>0.9750125024165186</v>
+        <v>0.9087720809778119</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8.104488454163672E-05</v>
+        <v>0.0001177730972456992</v>
       </c>
       <c r="I22">
-        <v>0.001659822506572262</v>
+        <v>0.002144759508238003</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.378555241990103</v>
+        <v>0.3285848319095237</v>
       </c>
       <c r="L22">
-        <v>0.1709071145718823</v>
+        <v>0.1411393801215439</v>
       </c>
       <c r="M22">
-        <v>1.531553564189466</v>
+        <v>0.1163057385046145</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.169761040881184</v>
       </c>
       <c r="O22">
-        <v>0.561470483873002</v>
+        <v>1.530031472417306</v>
       </c>
       <c r="P22">
-        <v>0.7895371805379163</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.100246822834777</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5644335218369747</v>
+      </c>
+      <c r="R22">
+        <v>0.7705214062579966</v>
+      </c>
+      <c r="S22">
+        <v>1.907407471415098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.31600069463903</v>
+        <v>1.236728790028394</v>
       </c>
       <c r="C23">
-        <v>0.245075301374186</v>
+        <v>0.2885543233298051</v>
       </c>
       <c r="D23">
-        <v>0.2447107249509628</v>
+        <v>0.257209653635627</v>
       </c>
       <c r="E23">
-        <v>0.1675130920073755</v>
+        <v>0.1707416678719156</v>
       </c>
       <c r="F23">
-        <v>0.958798397703859</v>
+        <v>0.894951324789119</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.47280844926545E-05</v>
+        <v>3.444267559937764E-05</v>
       </c>
       <c r="I23">
-        <v>0.001368350716632882</v>
+        <v>0.001786834973795948</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.3775025834004566</v>
+        <v>0.3287970218477874</v>
       </c>
       <c r="L23">
-        <v>0.1662958597086117</v>
+        <v>0.1429605814485022</v>
       </c>
       <c r="M23">
-        <v>1.476060006665165</v>
+        <v>0.113623191869646</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1653100999611397</v>
       </c>
       <c r="O23">
-        <v>0.5414440079193668</v>
+        <v>1.47483124241532</v>
       </c>
       <c r="P23">
-        <v>0.8017295187987594</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.076380819218514</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5443101548442471</v>
+      </c>
+      <c r="R23">
+        <v>0.7815840314971449</v>
+      </c>
+      <c r="S23">
+        <v>1.889825169713163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.128616544496793</v>
+        <v>1.065889542504408</v>
       </c>
       <c r="C24">
-        <v>0.2105341372602254</v>
+        <v>0.2442502343796633</v>
       </c>
       <c r="D24">
-        <v>0.2131043983642655</v>
+        <v>0.2236506178149682</v>
       </c>
       <c r="E24">
-        <v>0.1479577256059699</v>
+        <v>0.1509680713667656</v>
       </c>
       <c r="F24">
-        <v>0.8958800748797202</v>
+        <v>0.8410144734106879</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0002637752269416538</v>
+        <v>0.0001825809016176017</v>
       </c>
       <c r="I24">
-        <v>0.00115877573308687</v>
+        <v>0.001351959763321808</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3721012521861944</v>
+        <v>0.3282547419298005</v>
       </c>
       <c r="L24">
-        <v>0.1487190630269382</v>
+        <v>0.1494852749889368</v>
       </c>
       <c r="M24">
-        <v>1.265956759581343</v>
+        <v>0.1036990262268063</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1483317901997196</v>
       </c>
       <c r="O24">
-        <v>0.4658644573507331</v>
+        <v>1.265734089161072</v>
       </c>
       <c r="P24">
-        <v>0.8489381188385634</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.98155460180763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4683471210230721</v>
+      </c>
+      <c r="R24">
+        <v>0.8248706475489893</v>
+      </c>
+      <c r="S24">
+        <v>1.818681678919347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9259990333979147</v>
+        <v>0.8804436854905759</v>
       </c>
       <c r="C25">
-        <v>0.173912038662877</v>
+        <v>0.1975579989247791</v>
       </c>
       <c r="D25">
-        <v>0.1792618979416574</v>
+        <v>0.1877724189735517</v>
       </c>
       <c r="E25">
-        <v>0.1269351210982634</v>
+        <v>0.1297184354535617</v>
       </c>
       <c r="F25">
-        <v>0.8306660402978423</v>
+        <v>0.7850632928757975</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.001513333157881824</v>
+        <v>0.001253042980106533</v>
       </c>
       <c r="I25">
-        <v>0.001777141692615558</v>
+        <v>0.001595266503320758</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3674246168245787</v>
+        <v>0.3285117414722976</v>
       </c>
       <c r="L25">
-        <v>0.1297352725488565</v>
+        <v>0.1569376033764165</v>
       </c>
       <c r="M25">
-        <v>1.039733742259784</v>
+        <v>0.09510392591250749</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1299741917202297</v>
       </c>
       <c r="O25">
-        <v>0.3845993396444669</v>
+        <v>1.040397617714689</v>
       </c>
       <c r="P25">
-        <v>0.9024435945397897</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.886541938704767</v>
+        <v>0.3866406945401692</v>
+      </c>
+      <c r="R25">
+        <v>0.8742188463534468</v>
+      </c>
+      <c r="S25">
+        <v>1.747954408237945</v>
       </c>
     </row>
   </sheetData>
